--- a/CO2-forcing-1751-2014-demo/out/co2_abs_contrib_timeseries.xlsx
+++ b/CO2-forcing-1751-2014-demo/out/co2_abs_contrib_timeseries.xlsx
@@ -460,13 +460,13 @@
         <v>1751</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001566542811515389</v>
+        <v>0.001102545143842656</v>
       </c>
       <c r="C2" t="n">
-        <v>9.890828812619649e-05</v>
+        <v>0.0001654394908651088</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001467634523389192</v>
+        <v>0.0009371056529775476</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>1752</v>
       </c>
       <c r="B3" t="n">
-        <v>0.003116213253903042</v>
+        <v>0.002267596346375432</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003424973494686682</v>
+        <v>0.0003197027106261359</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002773715904434374</v>
+        <v>0.001947893635749296</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>1753</v>
       </c>
       <c r="B4" t="n">
-        <v>0.004561879794212076</v>
+        <v>0.00301581559960654</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005466434413165314</v>
+        <v>0.0004650006615123763</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004015236352895545</v>
+        <v>0.002550814938094163</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>1754</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00552753507093939</v>
+        <v>0.004700792541858734</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0005137056238516818</v>
+        <v>0.0006023443745171303</v>
       </c>
       <c r="D5" t="n">
-        <v>0.005013829447087708</v>
+        <v>0.004098448167341603</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>1755</v>
       </c>
       <c r="B6" t="n">
-        <v>0.007298548254456451</v>
+        <v>0.005500554784433533</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0009456965566421033</v>
+        <v>0.0009123681729700656</v>
       </c>
       <c r="D6" t="n">
-        <v>0.006352851697814348</v>
+        <v>0.004588186611463468</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>1756</v>
       </c>
       <c r="B7" t="n">
-        <v>0.008908193710255891</v>
+        <v>0.006364273813450935</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001333385861339027</v>
+        <v>0.001205253424358402</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007574807848916863</v>
+        <v>0.005159020389092533</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>1757</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0102108143567366</v>
+        <v>0.007890959334399365</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001588799773899294</v>
+        <v>0.001685608520835657</v>
       </c>
       <c r="D8" t="n">
-        <v>0.008622014582837303</v>
+        <v>0.006205350813563708</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>1758</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01183666669723504</v>
+        <v>0.008773492255705749</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002099800888943799</v>
+        <v>0.002141406813549407</v>
       </c>
       <c r="D9" t="n">
-        <v>0.009736865808291244</v>
+        <v>0.006632085442156342</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>1759</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01338714658200667</v>
+        <v>0.009665488878764207</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002610513769781775</v>
+        <v>0.002576268695578192</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0107766328122249</v>
+        <v>0.007089220183186015</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>1760</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01486808257473729</v>
+        <v>0.01060320502327887</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003149818911864069</v>
+        <v>0.002998670144127795</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01171826366287322</v>
+        <v>0.007604534879151074</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>1761</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01646245632974504</v>
+        <v>0.01225830689296523</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003682475848023711</v>
+        <v>0.003618805646931268</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01277998048172133</v>
+        <v>0.008639501246033965</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>1762</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01805404420012985</v>
+        <v>0.01446621494290551</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004351345202799894</v>
+        <v>0.004208761369724548</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01370269899732995</v>
+        <v>0.01025745357318096</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>1763</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01944186786507784</v>
+        <v>0.01578259581527661</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004828239829550676</v>
+        <v>0.004778673989218163</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01461362803552717</v>
+        <v>0.01100392182605844</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>1764</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02092878106426371</v>
+        <v>0.01668437856825714</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00545862087254656</v>
+        <v>0.005349484423656903</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01547016019171715</v>
+        <v>0.01133489414460023</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>1765</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02250188423683676</v>
+        <v>0.01836873684348903</v>
       </c>
       <c r="C16" t="n">
-        <v>0.006073530665250876</v>
+        <v>0.006095087537077604</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01642835357158588</v>
+        <v>0.01227364930641142</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>1766</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02424254610637631</v>
+        <v>0.01960459905163645</v>
       </c>
       <c r="C17" t="n">
-        <v>0.006923845510659277</v>
+        <v>0.006814388437057659</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01731870059571704</v>
+        <v>0.01279021061457879</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>1767</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0259600559527678</v>
+        <v>0.02103323674016799</v>
       </c>
       <c r="C18" t="n">
-        <v>0.007704473671148654</v>
+        <v>0.007513606442144938</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01825558228161915</v>
+        <v>0.01351963029802306</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>1768</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02754264986581741</v>
+        <v>0.02285074975097208</v>
       </c>
       <c r="C19" t="n">
-        <v>0.008464389629671554</v>
+        <v>0.008188556970304031</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01907826023614585</v>
+        <v>0.01466219278066805</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>1769</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02913807476049335</v>
+        <v>0.02408330025486588</v>
       </c>
       <c r="C20" t="n">
-        <v>0.009178250996115273</v>
+        <v>0.008990236326515536</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01995982376437808</v>
+        <v>0.01509306392835034</v>
       </c>
     </row>
     <row r="21">
@@ -726,13 +726,13 @@
         <v>1770</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03076953680295169</v>
+        <v>0.02567686378628119</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01002970295005534</v>
+        <v>0.009871993892512726</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02073983385289635</v>
+        <v>0.01580486989376846</v>
       </c>
     </row>
     <row r="22">
@@ -740,13 +740,13 @@
         <v>1771</v>
       </c>
       <c r="B22" t="n">
-        <v>0.03262674261595219</v>
+        <v>0.02692961081415791</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01096225081052274</v>
+        <v>0.01072769483080799</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02166449180542945</v>
+        <v>0.01620191598334993</v>
       </c>
     </row>
     <row r="23">
@@ -754,13 +754,13 @@
         <v>1772</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03439627442502063</v>
+        <v>0.02859021166315828</v>
       </c>
       <c r="C23" t="n">
-        <v>0.011878186302753</v>
+        <v>0.01172494210786937</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02251808812226763</v>
+        <v>0.01686526955528891</v>
       </c>
     </row>
     <row r="24">
@@ -768,13 +768,13 @@
         <v>1773</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03646980199098759</v>
+        <v>0.03039366900596219</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01310216342941495</v>
+        <v>0.01272571653183363</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02336763856157265</v>
+        <v>0.01766795247412856</v>
       </c>
     </row>
     <row r="25">
@@ -782,13 +782,13 @@
         <v>1774</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03850616984990357</v>
+        <v>0.03174968115929652</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01429170201920635</v>
+        <v>0.01372574388184677</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02421446783069722</v>
+        <v>0.01802393727744975</v>
       </c>
     </row>
     <row r="26">
@@ -796,13 +796,13 @@
         <v>1775</v>
       </c>
       <c r="B26" t="n">
-        <v>0.03980619142199412</v>
+        <v>0.03341083492519711</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01486225925997831</v>
+        <v>0.01478860816818406</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02494393216201582</v>
+        <v>0.01862222675701306</v>
       </c>
     </row>
     <row r="27">
@@ -810,13 +810,13 @@
         <v>1776</v>
       </c>
       <c r="B27" t="n">
-        <v>0.04146202520360814</v>
+        <v>0.03507509034043726</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01564037721219713</v>
+        <v>0.01581986814806902</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02582164799141101</v>
+        <v>0.01925522219236825</v>
       </c>
     </row>
     <row r="28">
@@ -824,13 +824,13 @@
         <v>1777</v>
       </c>
       <c r="B28" t="n">
-        <v>0.04354996451670839</v>
+        <v>0.03660175209973107</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01676286017196724</v>
+        <v>0.0168562534009544</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02678710434474116</v>
+        <v>0.01974549869877668</v>
       </c>
     </row>
     <row r="29">
@@ -838,13 +838,13 @@
         <v>1778</v>
       </c>
       <c r="B29" t="n">
-        <v>0.04529376130070994</v>
+        <v>0.03792302337072165</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01787466282960901</v>
+        <v>0.01787047939334585</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02741909847110094</v>
+        <v>0.0200525439773758</v>
       </c>
     </row>
     <row r="30">
@@ -852,13 +852,13 @@
         <v>1779</v>
       </c>
       <c r="B30" t="n">
-        <v>0.04717030688062177</v>
+        <v>0.03926453425913284</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01912553099361897</v>
+        <v>0.01896940947516579</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0280447758870028</v>
+        <v>0.02029512478396706</v>
       </c>
     </row>
     <row r="31">
@@ -866,13 +866,13 @@
         <v>1780</v>
       </c>
       <c r="B31" t="n">
-        <v>0.04909111639442579</v>
+        <v>0.0411517838489113</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02039885018458726</v>
+        <v>0.02016059061534722</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02869226620983853</v>
+        <v>0.02099119323356408</v>
       </c>
     </row>
     <row r="32">
@@ -880,13 +880,13 @@
         <v>1781</v>
       </c>
       <c r="B32" t="n">
-        <v>0.05154305944680643</v>
+        <v>0.04295374120984446</v>
       </c>
       <c r="C32" t="n">
-        <v>0.02201436983457666</v>
+        <v>0.02131984212420837</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02952868961222976</v>
+        <v>0.02163389908563609</v>
       </c>
     </row>
     <row r="33">
@@ -894,13 +894,13 @@
         <v>1782</v>
       </c>
       <c r="B33" t="n">
-        <v>0.05338996204885027</v>
+        <v>0.04559219397257375</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02308441535577749</v>
+        <v>0.02247006253513928</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03030554669307278</v>
+        <v>0.02312213143743447</v>
       </c>
     </row>
     <row r="34">
@@ -908,13 +908,13 @@
         <v>1783</v>
       </c>
       <c r="B34" t="n">
-        <v>0.05546971092883624</v>
+        <v>0.04690867220421793</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02432102571583222</v>
+        <v>0.02365476403313141</v>
       </c>
       <c r="D34" t="n">
-        <v>0.03114868521300401</v>
+        <v>0.02325390817108652</v>
       </c>
     </row>
     <row r="35">
@@ -922,13 +922,13 @@
         <v>1784</v>
       </c>
       <c r="B35" t="n">
-        <v>0.05793283148182887</v>
+        <v>0.04882896926694758</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0259981614658002</v>
+        <v>0.02484433274064807</v>
       </c>
       <c r="D35" t="n">
-        <v>0.03193467001602868</v>
+        <v>0.02398463652629951</v>
       </c>
     </row>
     <row r="36">
@@ -936,13 +936,13 @@
         <v>1785</v>
       </c>
       <c r="B36" t="n">
-        <v>0.06011781774720654</v>
+        <v>0.05086769524507348</v>
       </c>
       <c r="C36" t="n">
-        <v>0.02744364411814471</v>
+        <v>0.02607767304831163</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03267417362906183</v>
+        <v>0.02479002219676185</v>
       </c>
     </row>
     <row r="37">
@@ -950,13 +950,13 @@
         <v>1786</v>
       </c>
       <c r="B37" t="n">
-        <v>0.06232648835928239</v>
+        <v>0.05329874676068894</v>
       </c>
       <c r="C37" t="n">
-        <v>0.02891425489870325</v>
+        <v>0.02738681108496038</v>
       </c>
       <c r="D37" t="n">
-        <v>0.03341223346057914</v>
+        <v>0.02591193567572855</v>
       </c>
     </row>
     <row r="38">
@@ -964,13 +964,13 @@
         <v>1787</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06432337941370581</v>
+        <v>0.05537782748090508</v>
       </c>
       <c r="C38" t="n">
-        <v>0.03021221065906432</v>
+        <v>0.02867013474476898</v>
       </c>
       <c r="D38" t="n">
-        <v>0.03411116875464149</v>
+        <v>0.0267076927361361</v>
       </c>
     </row>
     <row r="39">
@@ -978,13 +978,13 @@
         <v>1788</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06625302668640931</v>
+        <v>0.05710934069803658</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0313556790692292</v>
+        <v>0.03007262750272949</v>
       </c>
       <c r="D39" t="n">
-        <v>0.03489734761718011</v>
+        <v>0.02703671319530709</v>
       </c>
     </row>
     <row r="40">
@@ -992,13 +992,13 @@
         <v>1789</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06834933280086614</v>
+        <v>0.05927555238988952</v>
       </c>
       <c r="C40" t="n">
-        <v>0.03285311790725332</v>
+        <v>0.03160771199702589</v>
       </c>
       <c r="D40" t="n">
-        <v>0.03549621489361282</v>
+        <v>0.02766784039286363</v>
       </c>
     </row>
     <row r="41">
@@ -1006,13 +1006,13 @@
         <v>1790</v>
       </c>
       <c r="B41" t="n">
-        <v>0.07051581057847867</v>
+        <v>0.0615727215109097</v>
       </c>
       <c r="C41" t="n">
-        <v>0.03436077831116002</v>
+        <v>0.03309330820118805</v>
       </c>
       <c r="D41" t="n">
-        <v>0.03615503226731864</v>
+        <v>0.02847941330972165</v>
       </c>
     </row>
     <row r="42">
@@ -1020,13 +1020,13 @@
         <v>1791</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07254114497217884</v>
+        <v>0.06354119573743772</v>
       </c>
       <c r="C42" t="n">
-        <v>0.03566909675745011</v>
+        <v>0.03455042050370305</v>
       </c>
       <c r="D42" t="n">
-        <v>0.03687204821472873</v>
+        <v>0.02899077523373467</v>
       </c>
     </row>
     <row r="43">
@@ -1034,13 +1034,13 @@
         <v>1792</v>
       </c>
       <c r="B43" t="n">
-        <v>0.07480552027987175</v>
+        <v>0.06583355724658851</v>
       </c>
       <c r="C43" t="n">
-        <v>0.03710060367584006</v>
+        <v>0.0359619084821034</v>
       </c>
       <c r="D43" t="n">
-        <v>0.03770491660403169</v>
+        <v>0.02987164876448511</v>
       </c>
     </row>
     <row r="44">
@@ -1048,13 +1048,13 @@
         <v>1793</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07697581784851282</v>
+        <v>0.06730543774590081</v>
       </c>
       <c r="C44" t="n">
-        <v>0.03866902271527511</v>
+        <v>0.03740076165944922</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0383067951332377</v>
+        <v>0.02990467608645159</v>
       </c>
     </row>
     <row r="45">
@@ -1062,13 +1062,13 @@
         <v>1794</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07900472139164094</v>
+        <v>0.07014244117095919</v>
       </c>
       <c r="C45" t="n">
-        <v>0.04011669331590917</v>
+        <v>0.03902607097882199</v>
       </c>
       <c r="D45" t="n">
-        <v>0.03888802807573177</v>
+        <v>0.0311163701921372</v>
       </c>
     </row>
     <row r="46">
@@ -1076,13 +1076,13 @@
         <v>1795</v>
       </c>
       <c r="B46" t="n">
-        <v>0.08123752455856903</v>
+        <v>0.07280504746029109</v>
       </c>
       <c r="C46" t="n">
-        <v>0.04173133297006015</v>
+        <v>0.04061085316223084</v>
       </c>
       <c r="D46" t="n">
-        <v>0.03950619158850888</v>
+        <v>0.03219419429806025</v>
       </c>
     </row>
     <row r="47">
@@ -1090,13 +1090,13 @@
         <v>1796</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08363541786107309</v>
+        <v>0.07482705175269699</v>
       </c>
       <c r="C47" t="n">
-        <v>0.04339153157711484</v>
+        <v>0.04218137582994747</v>
       </c>
       <c r="D47" t="n">
-        <v>0.04024388628395825</v>
+        <v>0.03264567592274953</v>
       </c>
     </row>
     <row r="48">
@@ -1104,13 +1104,13 @@
         <v>1797</v>
       </c>
       <c r="B48" t="n">
-        <v>0.08593530996045518</v>
+        <v>0.07717179077086034</v>
       </c>
       <c r="C48" t="n">
-        <v>0.04506368967035523</v>
+        <v>0.04374970219055319</v>
       </c>
       <c r="D48" t="n">
-        <v>0.04087162029009994</v>
+        <v>0.03342208858030715</v>
       </c>
     </row>
     <row r="49">
@@ -1118,13 +1118,13 @@
         <v>1798</v>
       </c>
       <c r="B49" t="n">
-        <v>0.08828564785906134</v>
+        <v>0.0795001841196924</v>
       </c>
       <c r="C49" t="n">
-        <v>0.04666160116876406</v>
+        <v>0.04550327702611018</v>
       </c>
       <c r="D49" t="n">
-        <v>0.04162404669029729</v>
+        <v>0.03399690709358222</v>
       </c>
     </row>
     <row r="50">
@@ -1132,13 +1132,13 @@
         <v>1799</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09057085503577889</v>
+        <v>0.08151448738707789</v>
       </c>
       <c r="C50" t="n">
-        <v>0.04847293412009812</v>
+        <v>0.04722483906913694</v>
       </c>
       <c r="D50" t="n">
-        <v>0.04209792091568076</v>
+        <v>0.03428964831794096</v>
       </c>
     </row>
     <row r="51">
@@ -1146,13 +1146,13 @@
         <v>1800</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09314793457576581</v>
+        <v>0.08379764732451778</v>
       </c>
       <c r="C51" t="n">
-        <v>0.05033122505204163</v>
+        <v>0.04889285526101411</v>
       </c>
       <c r="D51" t="n">
-        <v>0.04281670952372418</v>
+        <v>0.03490479206350366</v>
       </c>
     </row>
     <row r="52">
@@ -1160,13 +1160,13 @@
         <v>1801</v>
       </c>
       <c r="B52" t="n">
-        <v>0.09562712483015573</v>
+        <v>0.08634540134449509</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0521084350879506</v>
+        <v>0.05053175033551927</v>
       </c>
       <c r="D52" t="n">
-        <v>0.04351868974220513</v>
+        <v>0.03581365100897582</v>
       </c>
     </row>
     <row r="53">
@@ -1174,13 +1174,13 @@
         <v>1802</v>
       </c>
       <c r="B53" t="n">
-        <v>0.09775415510269425</v>
+        <v>0.08841471523599403</v>
       </c>
       <c r="C53" t="n">
-        <v>0.05373288366923928</v>
+        <v>0.05216318423207789</v>
       </c>
       <c r="D53" t="n">
-        <v>0.04402127143345497</v>
+        <v>0.03625153100391615</v>
       </c>
     </row>
     <row r="54">
@@ -1188,13 +1188,13 @@
         <v>1803</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1002669090938051</v>
+        <v>0.09046825075706511</v>
       </c>
       <c r="C54" t="n">
-        <v>0.05562553046623431</v>
+        <v>0.05376475413410864</v>
       </c>
       <c r="D54" t="n">
-        <v>0.04464137862757084</v>
+        <v>0.03670349662295647</v>
       </c>
     </row>
     <row r="55">
@@ -1202,13 +1202,13 @@
         <v>1804</v>
       </c>
       <c r="B55" t="n">
-        <v>0.102677580927502</v>
+        <v>0.0927012726826163</v>
       </c>
       <c r="C55" t="n">
-        <v>0.05733009764231983</v>
+        <v>0.05544301324573891</v>
       </c>
       <c r="D55" t="n">
-        <v>0.04534748328518212</v>
+        <v>0.03725825943687738</v>
       </c>
     </row>
     <row r="56">
@@ -1216,13 +1216,13 @@
         <v>1805</v>
       </c>
       <c r="B56" t="n">
-        <v>0.105223279875316</v>
+        <v>0.0951198094987552</v>
       </c>
       <c r="C56" t="n">
-        <v>0.05928163094223066</v>
+        <v>0.05714493591941666</v>
       </c>
       <c r="D56" t="n">
-        <v>0.04594164893308539</v>
+        <v>0.03797487357933854</v>
       </c>
     </row>
     <row r="57">
@@ -1230,13 +1230,13 @@
         <v>1806</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1075497690747267</v>
+        <v>0.0978609693348822</v>
       </c>
       <c r="C57" t="n">
-        <v>0.06093301181162336</v>
+        <v>0.05891413628188874</v>
       </c>
       <c r="D57" t="n">
-        <v>0.04661675726310333</v>
+        <v>0.03894683305299346</v>
       </c>
     </row>
     <row r="58">
@@ -1244,13 +1244,13 @@
         <v>1807</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1102929337501983</v>
+        <v>0.1000302057606106</v>
       </c>
       <c r="C58" t="n">
-        <v>0.06291813062153173</v>
+        <v>0.06075396008884687</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0473748031286666</v>
+        <v>0.03927624567176374</v>
       </c>
     </row>
     <row r="59">
@@ -1258,13 +1258,13 @@
         <v>1808</v>
       </c>
       <c r="B59" t="n">
-        <v>0.112733926592692</v>
+        <v>0.1025793656481135</v>
       </c>
       <c r="C59" t="n">
-        <v>0.06477573118072644</v>
+        <v>0.06259190871667342</v>
       </c>
       <c r="D59" t="n">
-        <v>0.04795819541196555</v>
+        <v>0.03998745693144012</v>
       </c>
     </row>
     <row r="60">
@@ -1272,13 +1272,13 @@
         <v>1809</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1149693737780014</v>
+        <v>0.1049944858815426</v>
       </c>
       <c r="C60" t="n">
-        <v>0.06646548968382371</v>
+        <v>0.0643985937121202</v>
       </c>
       <c r="D60" t="n">
-        <v>0.04850388409417772</v>
+        <v>0.04059589216942239</v>
       </c>
     </row>
     <row r="61">
@@ -1286,13 +1286,13 @@
         <v>1810</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1173361104862063</v>
+        <v>0.1068522384482548</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06833298322439718</v>
+        <v>0.06631119860265394</v>
       </c>
       <c r="D61" t="n">
-        <v>0.04900312726180911</v>
+        <v>0.04054103984560087</v>
       </c>
     </row>
     <row r="62">
@@ -1300,13 +1300,13 @@
         <v>1811</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1198782823117669</v>
+        <v>0.1091394442393701</v>
       </c>
       <c r="C62" t="n">
-        <v>0.07026743137321578</v>
+        <v>0.06815337801303811</v>
       </c>
       <c r="D62" t="n">
-        <v>0.04961085093855111</v>
+        <v>0.04098606622633194</v>
       </c>
     </row>
     <row r="63">
@@ -1314,13 +1314,13 @@
         <v>1812</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1223971610414323</v>
+        <v>0.111608367795193</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07225350091068339</v>
+        <v>0.07008784023550518</v>
       </c>
       <c r="D63" t="n">
-        <v>0.05014366013074889</v>
+        <v>0.04152052755968783</v>
       </c>
     </row>
     <row r="64">
@@ -1328,13 +1328,13 @@
         <v>1813</v>
       </c>
       <c r="B64" t="n">
-        <v>0.124745430247139</v>
+        <v>0.1140603140954838</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07406063278252573</v>
+        <v>0.07197877584889756</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0506847974646133</v>
+        <v>0.04208153824658623</v>
       </c>
     </row>
     <row r="65">
@@ -1342,13 +1342,13 @@
         <v>1814</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1271031141333097</v>
+        <v>0.1165773782011161</v>
       </c>
       <c r="C65" t="n">
-        <v>0.07587425409956494</v>
+        <v>0.073824550112913</v>
       </c>
       <c r="D65" t="n">
-        <v>0.05122886003374472</v>
+        <v>0.04275282808820313</v>
       </c>
     </row>
     <row r="66">
@@ -1356,13 +1356,13 @@
         <v>1815</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1297213901507986</v>
+        <v>0.1184580832984349</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07790506274693387</v>
+        <v>0.07578967504873924</v>
       </c>
       <c r="D66" t="n">
-        <v>0.05181632740386477</v>
+        <v>0.04266840824969564</v>
       </c>
     </row>
     <row r="67">
@@ -1370,13 +1370,13 @@
         <v>1816</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1321247890937949</v>
+        <v>0.1209532204319331</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0798552008833906</v>
+        <v>0.07767614126428302</v>
       </c>
       <c r="D67" t="n">
-        <v>0.05226958821040428</v>
+        <v>0.04327707916765011</v>
       </c>
     </row>
     <row r="68">
@@ -1384,13 +1384,13 @@
         <v>1817</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1346130997094345</v>
+        <v>0.1233322674968581</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08192961489206141</v>
+        <v>0.07968888661318041</v>
       </c>
       <c r="D68" t="n">
-        <v>0.05268348481737306</v>
+        <v>0.0436433808836777</v>
       </c>
     </row>
     <row r="69">
@@ -1398,13 +1398,13 @@
         <v>1818</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1371235228769592</v>
+        <v>0.1255363749547898</v>
       </c>
       <c r="C69" t="n">
-        <v>0.08409585380750506</v>
+        <v>0.08175923926250073</v>
       </c>
       <c r="D69" t="n">
-        <v>0.05302766906945411</v>
+        <v>0.04377713569228903</v>
       </c>
     </row>
     <row r="70">
@@ -1412,13 +1412,13 @@
         <v>1819</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1395596407925237</v>
+        <v>0.1283740322857984</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08588627024767681</v>
+        <v>0.0838374083794905</v>
       </c>
       <c r="D70" t="n">
-        <v>0.05367337054484689</v>
+        <v>0.04453662390630786</v>
       </c>
     </row>
     <row r="71">
@@ -1426,13 +1426,13 @@
         <v>1820</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1421988986018375</v>
+        <v>0.1312018473653974</v>
       </c>
       <c r="C71" t="n">
-        <v>0.08799591787659411</v>
+        <v>0.0858649818547409</v>
       </c>
       <c r="D71" t="n">
-        <v>0.05420298072524343</v>
+        <v>0.04533686551065652</v>
       </c>
     </row>
     <row r="72">
@@ -1440,13 +1440,13 @@
         <v>1821</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1450715801028818</v>
+        <v>0.1335752525101604</v>
       </c>
       <c r="C72" t="n">
-        <v>0.09024548054182935</v>
+        <v>0.0878889843493551</v>
       </c>
       <c r="D72" t="n">
-        <v>0.05482609956105244</v>
+        <v>0.04568626816080534</v>
       </c>
     </row>
     <row r="73">
@@ -1454,13 +1454,13 @@
         <v>1822</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1476151706927076</v>
+        <v>0.1363396154192826</v>
       </c>
       <c r="C73" t="n">
-        <v>0.09228139711740713</v>
+        <v>0.08983559171579503</v>
       </c>
       <c r="D73" t="n">
-        <v>0.05533377357530045</v>
+        <v>0.04650402370348761</v>
       </c>
     </row>
     <row r="74">
@@ -1468,13 +1468,13 @@
         <v>1823</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1500504605612357</v>
+        <v>0.1387567788341356</v>
       </c>
       <c r="C74" t="n">
-        <v>0.09426431645509603</v>
+        <v>0.09183528201135982</v>
       </c>
       <c r="D74" t="n">
-        <v>0.05578614410613969</v>
+        <v>0.0469214968227758</v>
       </c>
     </row>
     <row r="75">
@@ -1482,13 +1482,13 @@
         <v>1824</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1528010095268196</v>
+        <v>0.1413672708899503</v>
       </c>
       <c r="C75" t="n">
-        <v>0.09648526698433879</v>
+        <v>0.09389013650215161</v>
       </c>
       <c r="D75" t="n">
-        <v>0.05631574254248084</v>
+        <v>0.04747713438779866</v>
       </c>
     </row>
     <row r="76">
@@ -1496,13 +1496,13 @@
         <v>1825</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1554418279854238</v>
+        <v>0.1436228019959429</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0986410035467199</v>
+        <v>0.09594805488990166</v>
       </c>
       <c r="D76" t="n">
-        <v>0.05680082443870393</v>
+        <v>0.04767474710604125</v>
       </c>
     </row>
     <row r="77">
@@ -1510,13 +1510,13 @@
         <v>1826</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1580955838835536</v>
+        <v>0.1465967258668925</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1009065043181059</v>
+        <v>0.09789117473949727</v>
       </c>
       <c r="D77" t="n">
-        <v>0.05718907956544772</v>
+        <v>0.04870555112739527</v>
       </c>
     </row>
     <row r="78">
@@ -1524,13 +1524,13 @@
         <v>1827</v>
       </c>
       <c r="B78" t="n">
-        <v>0.160611873402126</v>
+        <v>0.148493872962195</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1029945593466097</v>
+        <v>0.09997166487239195</v>
       </c>
       <c r="D78" t="n">
-        <v>0.05761731405551629</v>
+        <v>0.04852220808980301</v>
       </c>
     </row>
     <row r="79">
@@ -1538,13 +1538,13 @@
         <v>1828</v>
       </c>
       <c r="B79" t="n">
-        <v>0.1631668978799776</v>
+        <v>0.1511271120497285</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1049178231550008</v>
+        <v>0.1020801603828405</v>
       </c>
       <c r="D79" t="n">
-        <v>0.05824907472497687</v>
+        <v>0.04904695166688799</v>
       </c>
     </row>
     <row r="80">
@@ -1552,13 +1552,13 @@
         <v>1829</v>
       </c>
       <c r="B80" t="n">
-        <v>0.1658228701965498</v>
+        <v>0.1539315079261749</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1070738323948198</v>
+        <v>0.1041300514976415</v>
       </c>
       <c r="D80" t="n">
-        <v>0.05874903780173002</v>
+        <v>0.0498014564285334</v>
       </c>
     </row>
     <row r="81">
@@ -1566,13 +1566,13 @@
         <v>1830</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1684422879239525</v>
+        <v>0.1560299668183645</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1091920661134453</v>
+        <v>0.1063153133788064</v>
       </c>
       <c r="D81" t="n">
-        <v>0.05925022181050721</v>
+        <v>0.04971465343955805</v>
       </c>
     </row>
     <row r="82">
@@ -1580,13 +1580,13 @@
         <v>1831</v>
       </c>
       <c r="B82" t="n">
-        <v>0.171184072837951</v>
+        <v>0.1586177401080955</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1115000509852385</v>
+        <v>0.108399691829688</v>
       </c>
       <c r="D82" t="n">
-        <v>0.05968402185271249</v>
+        <v>0.05021804827840748</v>
       </c>
     </row>
     <row r="83">
@@ -1594,13 +1594,13 @@
         <v>1832</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1738210375528859</v>
+        <v>0.1612204668220923</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1137300561373703</v>
+        <v>0.1104729919201638</v>
       </c>
       <c r="D83" t="n">
-        <v>0.06009098141551561</v>
+        <v>0.05074747490192855</v>
       </c>
     </row>
     <row r="84">
@@ -1608,13 +1608,13 @@
         <v>1833</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1763291546531751</v>
+        <v>0.1640901429035874</v>
       </c>
       <c r="C84" t="n">
-        <v>0.115701220030126</v>
+        <v>0.1125572242147299</v>
       </c>
       <c r="D84" t="n">
-        <v>0.06062793462304916</v>
+        <v>0.05153291868885745</v>
       </c>
     </row>
     <row r="85">
@@ -1622,13 +1622,13 @@
         <v>1834</v>
       </c>
       <c r="B85" t="n">
-        <v>0.178846431430792</v>
+        <v>0.1670693431526701</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1177675326091278</v>
+        <v>0.1146543108479978</v>
       </c>
       <c r="D85" t="n">
-        <v>0.06107889882166428</v>
+        <v>0.05241503230467226</v>
       </c>
     </row>
     <row r="86">
@@ -1636,13 +1636,13 @@
         <v>1835</v>
       </c>
       <c r="B86" t="n">
-        <v>0.181604366177114</v>
+        <v>0.16958294770126</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1201435633548655</v>
+        <v>0.1168023172163594</v>
       </c>
       <c r="D86" t="n">
-        <v>0.06146080282224842</v>
+        <v>0.05278063048490067</v>
       </c>
     </row>
     <row r="87">
@@ -1650,13 +1650,13 @@
         <v>1836</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1843714634450165</v>
+        <v>0.1718542783139935</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1224815279875927</v>
+        <v>0.1189869664688823</v>
       </c>
       <c r="D87" t="n">
-        <v>0.06188993545742383</v>
+        <v>0.05286731184511118</v>
       </c>
     </row>
     <row r="88">
@@ -1664,13 +1664,13 @@
         <v>1837</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1869185079885838</v>
+        <v>0.1748233109746102</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1246466478688161</v>
+        <v>0.1210360224954147</v>
       </c>
       <c r="D88" t="n">
-        <v>0.06227186011976771</v>
+        <v>0.05378728847919556</v>
       </c>
     </row>
     <row r="89">
@@ -1678,13 +1678,13 @@
         <v>1838</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1896286112654575</v>
+        <v>0.1777934213279538</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1269027436159056</v>
+        <v>0.1231698450927257</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0627258676495519</v>
+        <v>0.05462357623522818</v>
       </c>
     </row>
     <row r="90">
@@ -1692,13 +1692,13 @@
         <v>1839</v>
       </c>
       <c r="B90" t="n">
-        <v>0.192453687487621</v>
+        <v>0.1803011882940249</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1292173607255725</v>
+        <v>0.1253544946846464</v>
       </c>
       <c r="D90" t="n">
-        <v>0.06323632676204849</v>
+        <v>0.05494669360937843</v>
       </c>
     </row>
     <row r="91">
@@ -1706,13 +1706,13 @@
         <v>1840</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1951528567826099</v>
+        <v>0.1830979769301319</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1315559557778986</v>
+        <v>0.127585026374458</v>
       </c>
       <c r="D91" t="n">
-        <v>0.06359690100471127</v>
+        <v>0.05551295055567385</v>
       </c>
     </row>
     <row r="92">
@@ -1720,13 +1720,13 @@
         <v>1841</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1980444631253091</v>
+        <v>0.1859024017781762</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1339300817968254</v>
+        <v>0.1298219138429706</v>
       </c>
       <c r="D92" t="n">
-        <v>0.06411438132848368</v>
+        <v>0.05608048793520559</v>
       </c>
     </row>
     <row r="93">
@@ -1734,13 +1734,13 @@
         <v>1842</v>
       </c>
       <c r="B93" t="n">
-        <v>0.2007203693708717</v>
+        <v>0.1887052156497599</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1362418407942032</v>
+        <v>0.1320088452799894</v>
       </c>
       <c r="D93" t="n">
-        <v>0.06447852857666847</v>
+        <v>0.0566963703697706</v>
       </c>
     </row>
     <row r="94">
@@ -1748,13 +1748,13 @@
         <v>1843</v>
       </c>
       <c r="B94" t="n">
-        <v>0.2034091069157831</v>
+        <v>0.1913717422185247</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1385055479852173</v>
+        <v>0.1341708755207891</v>
       </c>
       <c r="D94" t="n">
-        <v>0.06490355893056576</v>
+        <v>0.05720086669773561</v>
       </c>
     </row>
     <row r="95">
@@ -1762,13 +1762,13 @@
         <v>1844</v>
       </c>
       <c r="B95" t="n">
-        <v>0.2060232930788881</v>
+        <v>0.1943129351036941</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1407673029402321</v>
+        <v>0.1362650619822556</v>
       </c>
       <c r="D95" t="n">
-        <v>0.06525599013865602</v>
+        <v>0.05804787312143844</v>
       </c>
     </row>
     <row r="96">
@@ -1776,13 +1776,13 @@
         <v>1845</v>
       </c>
       <c r="B96" t="n">
-        <v>0.2088444189927183</v>
+        <v>0.1965358645401595</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1432049727999045</v>
+        <v>0.1385655395719837</v>
       </c>
       <c r="D96" t="n">
-        <v>0.06563944619281381</v>
+        <v>0.05797032496817578</v>
       </c>
     </row>
     <row r="97">
@@ -1790,13 +1790,13 @@
         <v>1846</v>
       </c>
       <c r="B97" t="n">
-        <v>0.2112755383659588</v>
+        <v>0.1994573617397684</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1452068572431533</v>
+        <v>0.1407349106087452</v>
       </c>
       <c r="D97" t="n">
-        <v>0.06606868112280551</v>
+        <v>0.05872245113102315</v>
       </c>
     </row>
     <row r="98">
@@ -1804,13 +1804,13 @@
         <v>1847</v>
       </c>
       <c r="B98" t="n">
-        <v>0.213956528147677</v>
+        <v>0.202178169638377</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1475174220717161</v>
+        <v>0.1429114527368208</v>
       </c>
       <c r="D98" t="n">
-        <v>0.06643910607596082</v>
+        <v>0.05926671690155616</v>
       </c>
     </row>
     <row r="99">
@@ -1818,13 +1818,13 @@
         <v>1848</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2166454098607009</v>
+        <v>0.2047813552581097</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1498581596188926</v>
+        <v>0.1451463148467074</v>
       </c>
       <c r="D99" t="n">
-        <v>0.06678725024180832</v>
+        <v>0.05963504041140233</v>
       </c>
     </row>
     <row r="100">
@@ -1832,13 +1832,13 @@
         <v>1849</v>
       </c>
       <c r="B100" t="n">
-        <v>0.2191647269916663</v>
+        <v>0.2076882074001185</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1520153436611691</v>
+        <v>0.1472860778288261</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06714938333049725</v>
+        <v>0.06040212957129243</v>
       </c>
     </row>
     <row r="101">
@@ -1846,13 +1846,13 @@
         <v>1850</v>
       </c>
       <c r="B101" t="n">
-        <v>0.2218990426166836</v>
+        <v>0.2098257741952585</v>
       </c>
       <c r="C101" t="n">
-        <v>0.1544159152738496</v>
+        <v>0.1496679208093441</v>
       </c>
       <c r="D101" t="n">
-        <v>0.06748312734283402</v>
+        <v>0.06015785338591439</v>
       </c>
     </row>
     <row r="102">
@@ -1860,13 +1860,13 @@
         <v>1851</v>
       </c>
       <c r="B102" t="n">
-        <v>0.224472116787555</v>
+        <v>0.2127986944539231</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1566983058374019</v>
+        <v>0.1518553716094782</v>
       </c>
       <c r="D102" t="n">
-        <v>0.06777381095015311</v>
+        <v>0.06094332284444492</v>
       </c>
     </row>
     <row r="103">
@@ -1874,13 +1874,13 @@
         <v>1852</v>
       </c>
       <c r="B103" t="n">
-        <v>0.2273074850327157</v>
+        <v>0.2156409657153522</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1591662299546688</v>
+        <v>0.1541615310907956</v>
       </c>
       <c r="D103" t="n">
-        <v>0.06814125507804691</v>
+        <v>0.06147943462455663</v>
       </c>
     </row>
     <row r="104">
@@ -1888,13 +1888,13 @@
         <v>1853</v>
       </c>
       <c r="B104" t="n">
-        <v>0.2300551899893095</v>
+        <v>0.2180792297346628</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1614970775182436</v>
+        <v>0.156489325598907</v>
       </c>
       <c r="D104" t="n">
-        <v>0.06855811247106591</v>
+        <v>0.06158990413575571</v>
       </c>
     </row>
     <row r="105">
@@ -1902,13 +1902,13 @@
         <v>1854</v>
       </c>
       <c r="B105" t="n">
-        <v>0.2329206879318024</v>
+        <v>0.2209076640719179</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1639270720820081</v>
+        <v>0.1587533559979255</v>
       </c>
       <c r="D105" t="n">
-        <v>0.06899361584979435</v>
+        <v>0.06215430807399236</v>
       </c>
     </row>
     <row r="106">
@@ -1916,13 +1916,13 @@
         <v>1855</v>
       </c>
       <c r="B106" t="n">
-        <v>0.2358231597225535</v>
+        <v>0.2235170290748552</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1664261595931658</v>
+        <v>0.1610109090461014</v>
       </c>
       <c r="D106" t="n">
-        <v>0.06939700012938776</v>
+        <v>0.06250612002875378</v>
       </c>
     </row>
     <row r="107">
@@ -1930,13 +1930,13 @@
         <v>1856</v>
       </c>
       <c r="B107" t="n">
-        <v>0.238717852725886</v>
+        <v>0.2268126195941296</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1687950718271807</v>
+        <v>0.1631621337885323</v>
       </c>
       <c r="D107" t="n">
-        <v>0.06992278089870529</v>
+        <v>0.06365048580559729</v>
       </c>
     </row>
     <row r="108">
@@ -1944,13 +1944,13 @@
         <v>1857</v>
       </c>
       <c r="B108" t="n">
-        <v>0.2413397699978681</v>
+        <v>0.2299255427037292</v>
       </c>
       <c r="C108" t="n">
-        <v>0.1710378623596116</v>
+        <v>0.1653927716971089</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0703019076382565</v>
+        <v>0.06453277100662036</v>
       </c>
     </row>
     <row r="109">
@@ -1958,13 +1958,13 @@
         <v>1858</v>
       </c>
       <c r="B109" t="n">
-        <v>0.2438573562722579</v>
+        <v>0.2326573684020536</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1732257456605493</v>
+        <v>0.1676483949585734</v>
       </c>
       <c r="D109" t="n">
-        <v>0.07063161061170864</v>
+        <v>0.06500897344348022</v>
       </c>
     </row>
     <row r="110">
@@ -1972,13 +1972,13 @@
         <v>1859</v>
       </c>
       <c r="B110" t="n">
-        <v>0.2468858894757751</v>
+        <v>0.235115600773677</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1758011057037507</v>
+        <v>0.1699413639052103</v>
       </c>
       <c r="D110" t="n">
-        <v>0.07108478377202432</v>
+        <v>0.06517423686846668</v>
       </c>
     </row>
     <row r="111">
@@ -1986,13 +1986,13 @@
         <v>1860</v>
       </c>
       <c r="B111" t="n">
-        <v>0.249523905246017</v>
+        <v>0.237646840620096</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1781717818206241</v>
+        <v>0.1722493962666793</v>
       </c>
       <c r="D111" t="n">
-        <v>0.07135212342539288</v>
+        <v>0.06539744435341666</v>
       </c>
     </row>
     <row r="112">
@@ -2000,13 +2000,13 @@
         <v>1861</v>
       </c>
       <c r="B112" t="n">
-        <v>0.2522148992195061</v>
+        <v>0.2402136824088474</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1804534423776532</v>
+        <v>0.1745052813526529</v>
       </c>
       <c r="D112" t="n">
-        <v>0.07176145684185298</v>
+        <v>0.06570840105619458</v>
       </c>
     </row>
     <row r="113">
@@ -2014,13 +2014,13 @@
         <v>1862</v>
       </c>
       <c r="B113" t="n">
-        <v>0.2548974073065722</v>
+        <v>0.2427959418166112</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1828683679281886</v>
+        <v>0.1768369536714411</v>
       </c>
       <c r="D113" t="n">
-        <v>0.07202903937838356</v>
+        <v>0.06595898814517009</v>
       </c>
     </row>
     <row r="114">
@@ -2028,13 +2028,13 @@
         <v>1863</v>
       </c>
       <c r="B114" t="n">
-        <v>0.2576159702655041</v>
+        <v>0.2453432592536235</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1852277224126921</v>
+        <v>0.1792174151826653</v>
       </c>
       <c r="D114" t="n">
-        <v>0.07238824785281195</v>
+        <v>0.06612584407095823</v>
       </c>
     </row>
     <row r="115">
@@ -2042,13 +2042,13 @@
         <v>1864</v>
       </c>
       <c r="B115" t="n">
-        <v>0.2603248865223196</v>
+        <v>0.2479318961938319</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1877435473351463</v>
+        <v>0.1815389723025838</v>
       </c>
       <c r="D115" t="n">
-        <v>0.07258133918717324</v>
+        <v>0.06639292389124818</v>
       </c>
     </row>
     <row r="116">
@@ -2056,13 +2056,13 @@
         <v>1865</v>
       </c>
       <c r="B116" t="n">
-        <v>0.2630962505170318</v>
+        <v>0.2506065290144979</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1901206418037238</v>
+        <v>0.1838585282135414</v>
       </c>
       <c r="D116" t="n">
-        <v>0.07297560871330799</v>
+        <v>0.06674800080095644</v>
       </c>
     </row>
     <row r="117">
@@ -2070,13 +2070,13 @@
         <v>1866</v>
       </c>
       <c r="B117" t="n">
-        <v>0.2658051492057547</v>
+        <v>0.2531915639321731</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1925123600392835</v>
+        <v>0.1861510056964539</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0732927891664712</v>
+        <v>0.06704055823571919</v>
       </c>
     </row>
     <row r="118">
@@ -2084,13 +2084,13 @@
         <v>1867</v>
       </c>
       <c r="B118" t="n">
-        <v>0.268394109919162</v>
+        <v>0.2557608687417992</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1948323430413912</v>
+        <v>0.1884743728243254</v>
       </c>
       <c r="D118" t="n">
-        <v>0.07356176687777083</v>
+        <v>0.06728649591747371</v>
       </c>
     </row>
     <row r="119">
@@ -2098,13 +2098,13 @@
         <v>1868</v>
       </c>
       <c r="B119" t="n">
-        <v>0.2712541632828604</v>
+        <v>0.258251261389906</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1972640018146052</v>
+        <v>0.1907709776525224</v>
       </c>
       <c r="D119" t="n">
-        <v>0.07399016146825521</v>
+        <v>0.06748028373738357</v>
       </c>
     </row>
     <row r="120">
@@ -2112,13 +2112,13 @@
         <v>1869</v>
       </c>
       <c r="B120" t="n">
-        <v>0.2738952071055791</v>
+        <v>0.2615888102057113</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1995327113526537</v>
+        <v>0.1930042312365632</v>
       </c>
       <c r="D120" t="n">
-        <v>0.07436249575292542</v>
+        <v>0.06858457896914816</v>
       </c>
     </row>
     <row r="121">
@@ -2126,13 +2126,13 @@
         <v>1870</v>
       </c>
       <c r="B121" t="n">
-        <v>0.2766825518777898</v>
+        <v>0.2639918917470785</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2020167903666283</v>
+        <v>0.1954073730617119</v>
       </c>
       <c r="D121" t="n">
-        <v>0.07466576151116144</v>
+        <v>0.06858451868536664</v>
       </c>
     </row>
     <row r="122">
@@ -2140,13 +2140,13 @@
         <v>1871</v>
       </c>
       <c r="B122" t="n">
-        <v>0.2795117536818617</v>
+        <v>0.2664876101514075</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2046031884861645</v>
+        <v>0.1977567984027626</v>
       </c>
       <c r="D122" t="n">
-        <v>0.07490856519569711</v>
+        <v>0.06873081174864493</v>
       </c>
     </row>
     <row r="123">
@@ -2154,13 +2154,13 @@
         <v>1872</v>
       </c>
       <c r="B123" t="n">
-        <v>0.2820493806077011</v>
+        <v>0.2692613229531264</v>
       </c>
       <c r="C123" t="n">
-        <v>0.2068225185817054</v>
+        <v>0.1999915124039144</v>
       </c>
       <c r="D123" t="n">
-        <v>0.07522686202599571</v>
+        <v>0.069269810549212</v>
       </c>
     </row>
     <row r="124">
@@ -2168,13 +2168,13 @@
         <v>1873</v>
       </c>
       <c r="B124" t="n">
-        <v>0.2844961924398142</v>
+        <v>0.2719754195787403</v>
       </c>
       <c r="C124" t="n">
-        <v>0.2089537348332364</v>
+        <v>0.2023872949323482</v>
       </c>
       <c r="D124" t="n">
-        <v>0.07554245760657774</v>
+        <v>0.06958812464639208</v>
       </c>
     </row>
     <row r="125">
@@ -2182,13 +2182,13 @@
         <v>1874</v>
       </c>
       <c r="B125" t="n">
-        <v>0.2873207464647942</v>
+        <v>0.2748746228876087</v>
       </c>
       <c r="C125" t="n">
-        <v>0.211440032876439</v>
+        <v>0.2047786247098493</v>
       </c>
       <c r="D125" t="n">
-        <v>0.07588071358835524</v>
+        <v>0.07009599817775936</v>
       </c>
     </row>
     <row r="126">
@@ -2196,13 +2196,13 @@
         <v>1875</v>
       </c>
       <c r="B126" t="n">
-        <v>0.2903318017920131</v>
+        <v>0.2777955893311261</v>
       </c>
       <c r="C126" t="n">
-        <v>0.214132601538322</v>
+        <v>0.2071062189492971</v>
       </c>
       <c r="D126" t="n">
-        <v>0.07619920025369109</v>
+        <v>0.07068937038182899</v>
       </c>
     </row>
     <row r="127">
@@ -2210,13 +2210,13 @@
         <v>1876</v>
       </c>
       <c r="B127" t="n">
-        <v>0.2928848293467963</v>
+        <v>0.2807884769765359</v>
       </c>
       <c r="C127" t="n">
-        <v>0.2164294614604807</v>
+        <v>0.2094061637080655</v>
       </c>
       <c r="D127" t="n">
-        <v>0.07645536788631557</v>
+        <v>0.07138231326847033</v>
       </c>
     </row>
     <row r="128">
@@ -2224,13 +2224,13 @@
         <v>1877</v>
       </c>
       <c r="B128" t="n">
-        <v>0.2954287353538394</v>
+        <v>0.2836763760015335</v>
       </c>
       <c r="C128" t="n">
-        <v>0.218707346487123</v>
+        <v>0.2117570648308194</v>
       </c>
       <c r="D128" t="n">
-        <v>0.07672138886671642</v>
+        <v>0.07191931117071415</v>
       </c>
     </row>
     <row r="129">
@@ -2238,13 +2238,13 @@
         <v>1878</v>
       </c>
       <c r="B129" t="n">
-        <v>0.2981668429638697</v>
+        <v>0.2861694772532026</v>
       </c>
       <c r="C129" t="n">
-        <v>0.2211970991743346</v>
+        <v>0.2141628038614849</v>
       </c>
       <c r="D129" t="n">
-        <v>0.07696974378953514</v>
+        <v>0.07200667339171773</v>
       </c>
     </row>
     <row r="130">
@@ -2252,13 +2252,13 @@
         <v>1879</v>
       </c>
       <c r="B130" t="n">
-        <v>0.3007166048278291</v>
+        <v>0.2890602042298549</v>
       </c>
       <c r="C130" t="n">
-        <v>0.2235358440688335</v>
+        <v>0.2164107605253096</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0771807607589956</v>
+        <v>0.07264944370454529</v>
       </c>
     </row>
     <row r="131">
@@ -2266,13 +2266,13 @@
         <v>1880</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3033430818852541</v>
+        <v>0.2914033841299004</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2259058911150591</v>
+        <v>0.2188569918116905</v>
       </c>
       <c r="D131" t="n">
-        <v>0.07743719077019495</v>
+        <v>0.07254639231820992</v>
       </c>
     </row>
     <row r="132">
@@ -2280,13 +2280,13 @@
         <v>1881</v>
       </c>
       <c r="B132" t="n">
-        <v>0.3060089977457052</v>
+        <v>0.294061225333313</v>
       </c>
       <c r="C132" t="n">
-        <v>0.228288322531554</v>
+        <v>0.2211668642951963</v>
       </c>
       <c r="D132" t="n">
-        <v>0.07772067521415127</v>
+        <v>0.07289436103811675</v>
       </c>
     </row>
     <row r="133">
@@ -2294,13 +2294,13 @@
         <v>1882</v>
       </c>
       <c r="B133" t="n">
-        <v>0.3087942567638087</v>
+        <v>0.2966107239354161</v>
       </c>
       <c r="C133" t="n">
-        <v>0.2307548777625679</v>
+        <v>0.2234631630327792</v>
       </c>
       <c r="D133" t="n">
-        <v>0.07803937900124081</v>
+        <v>0.07314756090263685</v>
       </c>
     </row>
     <row r="134">
@@ -2308,13 +2308,13 @@
         <v>1883</v>
       </c>
       <c r="B134" t="n">
-        <v>0.3115050726733306</v>
+        <v>0.2990260227731085</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2331066039754464</v>
+        <v>0.2257575230233546</v>
       </c>
       <c r="D134" t="n">
-        <v>0.07839846869788425</v>
+        <v>0.07326849974975391</v>
       </c>
     </row>
     <row r="135">
@@ -2322,13 +2322,13 @@
         <v>1884</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3141768240230125</v>
+        <v>0.301860052982877</v>
       </c>
       <c r="C135" t="n">
-        <v>0.2355647600956705</v>
+        <v>0.2280554260456058</v>
       </c>
       <c r="D135" t="n">
-        <v>0.07861206392734199</v>
+        <v>0.07380462693727119</v>
       </c>
     </row>
     <row r="136">
@@ -2336,13 +2336,13 @@
         <v>1885</v>
       </c>
       <c r="B136" t="n">
-        <v>0.3168640971310852</v>
+        <v>0.3045415408270544</v>
       </c>
       <c r="C136" t="n">
-        <v>0.237950359051363</v>
+        <v>0.2304117552437255</v>
       </c>
       <c r="D136" t="n">
-        <v>0.07891373807972224</v>
+        <v>0.07412978558332894</v>
       </c>
     </row>
     <row r="137">
@@ -2350,13 +2350,13 @@
         <v>1886</v>
       </c>
       <c r="B137" t="n">
-        <v>0.3194373415180392</v>
+        <v>0.3074113620254202</v>
       </c>
       <c r="C137" t="n">
-        <v>0.2402812135840882</v>
+        <v>0.2326587716290367</v>
       </c>
       <c r="D137" t="n">
-        <v>0.07915612793395099</v>
+        <v>0.07475259039638349</v>
       </c>
     </row>
     <row r="138">
@@ -2364,13 +2364,13 @@
         <v>1887</v>
       </c>
       <c r="B138" t="n">
-        <v>0.3221779796440403</v>
+        <v>0.3098142709751124</v>
       </c>
       <c r="C138" t="n">
-        <v>0.242634165652597</v>
+        <v>0.2350774651209826</v>
       </c>
       <c r="D138" t="n">
-        <v>0.07954381399144328</v>
+        <v>0.07473680585412978</v>
       </c>
     </row>
     <row r="139">
@@ -2378,13 +2378,13 @@
         <v>1888</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3247532413483591</v>
+        <v>0.3126347203363817</v>
       </c>
       <c r="C139" t="n">
-        <v>0.2449550670209788</v>
+        <v>0.2373165488871765</v>
       </c>
       <c r="D139" t="n">
-        <v>0.07979817432738034</v>
+        <v>0.07531817144920527</v>
       </c>
     </row>
     <row r="140">
@@ -2392,13 +2392,13 @@
         <v>1889</v>
       </c>
       <c r="B140" t="n">
-        <v>0.3274451614443543</v>
+        <v>0.3154205593291055</v>
       </c>
       <c r="C140" t="n">
-        <v>0.2473705703613933</v>
+        <v>0.2396314920609923</v>
       </c>
       <c r="D140" t="n">
-        <v>0.080074591082961</v>
+        <v>0.07578906726811319</v>
       </c>
     </row>
     <row r="141">
@@ -2406,13 +2406,13 @@
         <v>1890</v>
       </c>
       <c r="B141" t="n">
-        <v>0.3299608926898654</v>
+        <v>0.3180926969167037</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2496882959563809</v>
+        <v>0.2419309851234221</v>
       </c>
       <c r="D141" t="n">
-        <v>0.08027259673348452</v>
+        <v>0.07616171179328157</v>
       </c>
     </row>
     <row r="142">
@@ -2420,13 +2420,13 @@
         <v>1891</v>
       </c>
       <c r="B142" t="n">
-        <v>0.3324912527860728</v>
+        <v>0.3204658757297645</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2520115963705114</v>
+        <v>0.24430690441126</v>
       </c>
       <c r="D142" t="n">
-        <v>0.08047965641556143</v>
+        <v>0.07615897131850446</v>
       </c>
     </row>
     <row r="143">
@@ -2434,13 +2434,13 @@
         <v>1892</v>
       </c>
       <c r="B143" t="n">
-        <v>0.3353035482628988</v>
+        <v>0.3230731515202847</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2545808605028941</v>
+        <v>0.2466126524780305</v>
       </c>
       <c r="D143" t="n">
-        <v>0.08072268776000469</v>
+        <v>0.07646049904225416</v>
       </c>
     </row>
     <row r="144">
@@ -2448,13 +2448,13 @@
         <v>1893</v>
       </c>
       <c r="B144" t="n">
-        <v>0.3379335243527661</v>
+        <v>0.3254922159273537</v>
       </c>
       <c r="C144" t="n">
-        <v>0.2569905907803443</v>
+        <v>0.2490467242898373</v>
       </c>
       <c r="D144" t="n">
-        <v>0.08094293357242188</v>
+        <v>0.07644549163751635</v>
       </c>
     </row>
     <row r="145">
@@ -2462,13 +2462,13 @@
         <v>1894</v>
       </c>
       <c r="B145" t="n">
-        <v>0.3405912741658432</v>
+        <v>0.3278229774283656</v>
       </c>
       <c r="C145" t="n">
-        <v>0.2593860468916105</v>
+        <v>0.2514989351725772</v>
       </c>
       <c r="D145" t="n">
-        <v>0.08120522727423274</v>
+        <v>0.07632404225578848</v>
       </c>
     </row>
     <row r="146">
@@ -2476,13 +2476,13 @@
         <v>1895</v>
       </c>
       <c r="B146" t="n">
-        <v>0.3432112916633563</v>
+        <v>0.3311103176341172</v>
       </c>
       <c r="C146" t="n">
-        <v>0.2618656452807009</v>
+        <v>0.2536016742508149</v>
       </c>
       <c r="D146" t="n">
-        <v>0.0813456463826554</v>
+        <v>0.07750864338330232</v>
       </c>
     </row>
     <row r="147">
@@ -2490,13 +2490,13 @@
         <v>1896</v>
       </c>
       <c r="B147" t="n">
-        <v>0.3458387346344538</v>
+        <v>0.3339141053509642</v>
       </c>
       <c r="C147" t="n">
-        <v>0.2642100714849061</v>
+        <v>0.2558385911143652</v>
       </c>
       <c r="D147" t="n">
-        <v>0.08162866314954775</v>
+        <v>0.07807551423659898</v>
       </c>
     </row>
     <row r="148">
@@ -2504,13 +2504,13 @@
         <v>1897</v>
       </c>
       <c r="B148" t="n">
-        <v>0.3484123708219715</v>
+        <v>0.3368416200608262</v>
       </c>
       <c r="C148" t="n">
-        <v>0.266600045657178</v>
+        <v>0.2580238054370212</v>
       </c>
       <c r="D148" t="n">
-        <v>0.08181232516479353</v>
+        <v>0.07881781462380499</v>
       </c>
     </row>
     <row r="149">
@@ -2518,13 +2518,13 @@
         <v>1898</v>
       </c>
       <c r="B149" t="n">
-        <v>0.3511525156382733</v>
+        <v>0.3393837024804014</v>
       </c>
       <c r="C149" t="n">
-        <v>0.2690106628003002</v>
+        <v>0.2603790753875939</v>
       </c>
       <c r="D149" t="n">
-        <v>0.08214185283797315</v>
+        <v>0.07900462709280753</v>
       </c>
     </row>
     <row r="150">
@@ -2532,13 +2532,13 @@
         <v>1899</v>
       </c>
       <c r="B150" t="n">
-        <v>0.353781483533663</v>
+        <v>0.3421077597063973</v>
       </c>
       <c r="C150" t="n">
-        <v>0.2714350984525327</v>
+        <v>0.2626378819996922</v>
       </c>
       <c r="D150" t="n">
-        <v>0.08234638508113035</v>
+        <v>0.07946987770670511</v>
       </c>
     </row>
     <row r="151">
@@ -2546,13 +2546,13 @@
         <v>1900</v>
       </c>
       <c r="B151" t="n">
-        <v>0.3563363782115236</v>
+        <v>0.3448423069950373</v>
       </c>
       <c r="C151" t="n">
-        <v>0.2736930473482473</v>
+        <v>0.264918368182417</v>
       </c>
       <c r="D151" t="n">
-        <v>0.08264333086327635</v>
+        <v>0.07992393881262028</v>
       </c>
     </row>
     <row r="152">
@@ -2560,13 +2560,13 @@
         <v>1901</v>
       </c>
       <c r="B152" t="n">
-        <v>0.3589611723582451</v>
+        <v>0.3475193618748846</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2761901352449756</v>
+        <v>0.2671686293776765</v>
       </c>
       <c r="D152" t="n">
-        <v>0.0827710371132695</v>
+        <v>0.08035073249720814</v>
       </c>
     </row>
     <row r="153">
@@ -2574,13 +2574,13 @@
         <v>1902</v>
       </c>
       <c r="B153" t="n">
-        <v>0.3615311143165707</v>
+        <v>0.3500593458752668</v>
       </c>
       <c r="C153" t="n">
-        <v>0.2785102296029089</v>
+        <v>0.2694230459732303</v>
       </c>
       <c r="D153" t="n">
-        <v>0.08302088471366176</v>
+        <v>0.08063629990203647</v>
       </c>
     </row>
     <row r="154">
@@ -2588,13 +2588,13 @@
         <v>1903</v>
       </c>
       <c r="B154" t="n">
-        <v>0.3640051841147565</v>
+        <v>0.3526403863471166</v>
       </c>
       <c r="C154" t="n">
-        <v>0.2808098014272691</v>
+        <v>0.2717757255343232</v>
       </c>
       <c r="D154" t="n">
-        <v>0.08319538268748738</v>
+        <v>0.08086466081279342</v>
       </c>
     </row>
     <row r="155">
@@ -2602,13 +2602,13 @@
         <v>1904</v>
       </c>
       <c r="B155" t="n">
-        <v>0.3665126144495638</v>
+        <v>0.3549657795627899</v>
       </c>
       <c r="C155" t="n">
-        <v>0.283120964957233</v>
+        <v>0.2742945628351015</v>
       </c>
       <c r="D155" t="n">
-        <v>0.0833916494923308</v>
+        <v>0.0806712167276884</v>
       </c>
     </row>
     <row r="156">
@@ -2616,13 +2616,13 @@
         <v>1905</v>
       </c>
       <c r="B156" t="n">
-        <v>0.3690836053137383</v>
+        <v>0.3577212152621279</v>
       </c>
       <c r="C156" t="n">
-        <v>0.2854732031329179</v>
+        <v>0.2765888431391303</v>
       </c>
       <c r="D156" t="n">
-        <v>0.08361040218082039</v>
+        <v>0.08113237212299751</v>
       </c>
     </row>
     <row r="157">
@@ -2630,13 +2630,13 @@
         <v>1906</v>
       </c>
       <c r="B157" t="n">
-        <v>0.3718045867710056</v>
+        <v>0.3603985081615244</v>
       </c>
       <c r="C157" t="n">
-        <v>0.2880171344705587</v>
+        <v>0.2788595197838966</v>
       </c>
       <c r="D157" t="n">
-        <v>0.08378745230044693</v>
+        <v>0.08153898837762785</v>
       </c>
     </row>
     <row r="158">
@@ -2644,13 +2644,13 @@
         <v>1907</v>
       </c>
       <c r="B158" t="n">
-        <v>0.374296956687592</v>
+        <v>0.3631478931688528</v>
       </c>
       <c r="C158" t="n">
-        <v>0.2902739769332432</v>
+        <v>0.2810508598932953</v>
       </c>
       <c r="D158" t="n">
-        <v>0.0840229797543488</v>
+        <v>0.08209703327555751</v>
       </c>
     </row>
     <row r="159">
@@ -2658,13 +2658,13 @@
         <v>1908</v>
       </c>
       <c r="B159" t="n">
-        <v>0.3769195178420623</v>
+        <v>0.3656453875162351</v>
       </c>
       <c r="C159" t="n">
-        <v>0.2926516840257738</v>
+        <v>0.2833248560490313</v>
       </c>
       <c r="D159" t="n">
-        <v>0.08426783381628855</v>
+        <v>0.08232053146720375</v>
       </c>
     </row>
     <row r="160">
@@ -2672,13 +2672,13 @@
         <v>1909</v>
       </c>
       <c r="B160" t="n">
-        <v>0.3793387541260504</v>
+        <v>0.3684744367054185</v>
       </c>
       <c r="C160" t="n">
-        <v>0.2948152556321622</v>
+        <v>0.285469829964633</v>
       </c>
       <c r="D160" t="n">
-        <v>0.08452349849388829</v>
+        <v>0.08300460674078547</v>
       </c>
     </row>
     <row r="161">
@@ -2686,13 +2686,13 @@
         <v>1910</v>
       </c>
       <c r="B161" t="n">
-        <v>0.3819095386590654</v>
+        <v>0.3709032558748659</v>
       </c>
       <c r="C161" t="n">
-        <v>0.2971976182029212</v>
+        <v>0.2877325542023286</v>
       </c>
       <c r="D161" t="n">
-        <v>0.08471192045614417</v>
+        <v>0.08317070167253737</v>
       </c>
     </row>
     <row r="162">
@@ -2700,13 +2700,13 @@
         <v>1911</v>
       </c>
       <c r="B162" t="n">
-        <v>0.3844968824984236</v>
+        <v>0.3732196319788286</v>
       </c>
       <c r="C162" t="n">
-        <v>0.2996765148617309</v>
+        <v>0.2900532280645574</v>
       </c>
       <c r="D162" t="n">
-        <v>0.08482036763669276</v>
+        <v>0.08316640391427121</v>
       </c>
     </row>
     <row r="163">
@@ -2714,13 +2714,13 @@
         <v>1912</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3870042869813997</v>
+        <v>0.3758750003780449</v>
       </c>
       <c r="C163" t="n">
-        <v>0.3020297667606942</v>
+        <v>0.292198401570491</v>
       </c>
       <c r="D163" t="n">
-        <v>0.08497452022070551</v>
+        <v>0.08367659880755385</v>
       </c>
     </row>
     <row r="164">
@@ -2728,13 +2728,13 @@
         <v>1913</v>
       </c>
       <c r="B164" t="n">
-        <v>0.3894997980550023</v>
+        <v>0.3783495206937575</v>
       </c>
       <c r="C164" t="n">
-        <v>0.3043339216212217</v>
+        <v>0.2944996080469764</v>
       </c>
       <c r="D164" t="n">
-        <v>0.0851658764337806</v>
+        <v>0.0838499126467811</v>
       </c>
     </row>
     <row r="165">
@@ -2742,13 +2742,13 @@
         <v>1914</v>
       </c>
       <c r="B165" t="n">
-        <v>0.3919888642593454</v>
+        <v>0.3806812897666771</v>
       </c>
       <c r="C165" t="n">
-        <v>0.3067476879838984</v>
+        <v>0.2968220142303768</v>
       </c>
       <c r="D165" t="n">
-        <v>0.08524117627544703</v>
+        <v>0.08385927553630035</v>
       </c>
     </row>
     <row r="166">
@@ -2756,13 +2756,13 @@
         <v>1915</v>
       </c>
       <c r="B166" t="n">
-        <v>0.3946184034457541</v>
+        <v>0.3832678694450258</v>
       </c>
       <c r="C166" t="n">
-        <v>0.3091446676926779</v>
+        <v>0.2990793214344856</v>
       </c>
       <c r="D166" t="n">
-        <v>0.08547373575307615</v>
+        <v>0.08418854801054021</v>
       </c>
     </row>
     <row r="167">
@@ -2770,13 +2770,13 @@
         <v>1916</v>
       </c>
       <c r="B167" t="n">
-        <v>0.3971935088111622</v>
+        <v>0.3859124054062302</v>
       </c>
       <c r="C167" t="n">
-        <v>0.3115475244733674</v>
+        <v>0.301259211775422</v>
       </c>
       <c r="D167" t="n">
-        <v>0.0856459843377948</v>
+        <v>0.08465319363080814</v>
       </c>
     </row>
     <row r="168">
@@ -2784,13 +2784,13 @@
         <v>1917</v>
       </c>
       <c r="B168" t="n">
-        <v>0.3998601043814802</v>
+        <v>0.3885103415955626</v>
       </c>
       <c r="C168" t="n">
-        <v>0.3140568793855354</v>
+        <v>0.3035271872433851</v>
       </c>
       <c r="D168" t="n">
-        <v>0.08580322499594484</v>
+        <v>0.08498315435217751</v>
       </c>
     </row>
     <row r="169">
@@ -2798,13 +2798,13 @@
         <v>1918</v>
       </c>
       <c r="B169" t="n">
-        <v>0.4024156725878001</v>
+        <v>0.3911080159775238</v>
       </c>
       <c r="C169" t="n">
-        <v>0.3163755641631529</v>
+        <v>0.3057408499582102</v>
       </c>
       <c r="D169" t="n">
-        <v>0.08604010842464715</v>
+        <v>0.0853671660193136</v>
       </c>
     </row>
     <row r="170">
@@ -2812,13 +2812,13 @@
         <v>1919</v>
       </c>
       <c r="B170" t="n">
-        <v>0.4048908460276941</v>
+        <v>0.3943058709377509</v>
       </c>
       <c r="C170" t="n">
-        <v>0.3186286074603428</v>
+        <v>0.3077870439292454</v>
       </c>
       <c r="D170" t="n">
-        <v>0.08626223856735127</v>
+        <v>0.08651882700850555</v>
       </c>
     </row>
     <row r="171">
@@ -2826,13 +2826,13 @@
         <v>1920</v>
       </c>
       <c r="B171" t="n">
-        <v>0.4073831991460213</v>
+        <v>0.3969326779036426</v>
       </c>
       <c r="C171" t="n">
-        <v>0.3209326985118732</v>
+        <v>0.3100356161403099</v>
       </c>
       <c r="D171" t="n">
-        <v>0.08645050063414805</v>
+        <v>0.08689706176333267</v>
       </c>
     </row>
     <row r="172">
@@ -2840,13 +2840,13 @@
         <v>1921</v>
       </c>
       <c r="B172" t="n">
-        <v>0.4098314198541488</v>
+        <v>0.3996272643207908</v>
       </c>
       <c r="C172" t="n">
-        <v>0.3232611653171849</v>
+        <v>0.3121972678128611</v>
       </c>
       <c r="D172" t="n">
-        <v>0.08657025453696399</v>
+        <v>0.08742999650792971</v>
       </c>
     </row>
     <row r="173">
@@ -2854,13 +2854,13 @@
         <v>1922</v>
       </c>
       <c r="B173" t="n">
-        <v>0.4123374330785485</v>
+        <v>0.4017986797486932</v>
       </c>
       <c r="C173" t="n">
-        <v>0.3255777486159892</v>
+        <v>0.3146053258660348</v>
       </c>
       <c r="D173" t="n">
-        <v>0.08675968446255933</v>
+        <v>0.08719335388265836</v>
       </c>
     </row>
     <row r="174">
@@ -2868,13 +2868,13 @@
         <v>1923</v>
       </c>
       <c r="B174" t="n">
-        <v>0.4148266272232988</v>
+        <v>0.4043979669701732</v>
       </c>
       <c r="C174" t="n">
-        <v>0.3278781059934102</v>
+        <v>0.3169025877444551</v>
       </c>
       <c r="D174" t="n">
-        <v>0.08694852122988861</v>
+        <v>0.08749537922571804</v>
       </c>
     </row>
     <row r="175">
@@ -2882,13 +2882,13 @@
         <v>1924</v>
       </c>
       <c r="B175" t="n">
-        <v>0.4172816034352098</v>
+        <v>0.4070179228882456</v>
       </c>
       <c r="C175" t="n">
-        <v>0.3302145435592894</v>
+        <v>0.319131313185999</v>
       </c>
       <c r="D175" t="n">
-        <v>0.08706705987592045</v>
+        <v>0.0878866097022466</v>
       </c>
     </row>
     <row r="176">
@@ -2896,13 +2896,13 @@
         <v>1925</v>
       </c>
       <c r="B176" t="n">
-        <v>0.4196615230568179</v>
+        <v>0.4094365942314746</v>
       </c>
       <c r="C176" t="n">
-        <v>0.3323564560010053</v>
+        <v>0.3214055316249311</v>
       </c>
       <c r="D176" t="n">
-        <v>0.08730506705581265</v>
+        <v>0.08803106260654348</v>
       </c>
     </row>
     <row r="177">
@@ -2910,13 +2910,13 @@
         <v>1926</v>
       </c>
       <c r="B177" t="n">
-        <v>0.4222078865132657</v>
+        <v>0.4117596283603024</v>
       </c>
       <c r="C177" t="n">
-        <v>0.3347234827590841</v>
+        <v>0.3236789920311431</v>
       </c>
       <c r="D177" t="n">
-        <v>0.08748440375418154</v>
+        <v>0.0880806363291593</v>
       </c>
     </row>
     <row r="178">
@@ -2924,13 +2924,13 @@
         <v>1927</v>
       </c>
       <c r="B178" t="n">
-        <v>0.4245536779662138</v>
+        <v>0.4143013693551874</v>
       </c>
       <c r="C178" t="n">
-        <v>0.3370089621639605</v>
+        <v>0.3258910769433436</v>
       </c>
       <c r="D178" t="n">
-        <v>0.08754471580225331</v>
+        <v>0.08841029241184373</v>
       </c>
     </row>
     <row r="179">
@@ -2938,13 +2938,13 @@
         <v>1928</v>
       </c>
       <c r="B179" t="n">
-        <v>0.4269285511232903</v>
+        <v>0.4167077612839809</v>
       </c>
       <c r="C179" t="n">
-        <v>0.3392040688703144</v>
+        <v>0.3281208708586432</v>
       </c>
       <c r="D179" t="n">
-        <v>0.08772448225297591</v>
+        <v>0.08858689042533774</v>
       </c>
     </row>
     <row r="180">
@@ -2952,13 +2952,13 @@
         <v>1929</v>
       </c>
       <c r="B180" t="n">
-        <v>0.4293864747214728</v>
+        <v>0.4190764154410958</v>
       </c>
       <c r="C180" t="n">
-        <v>0.3415744624035275</v>
+        <v>0.3303668223696654</v>
       </c>
       <c r="D180" t="n">
-        <v>0.08781201231794533</v>
+        <v>0.08870959307143034</v>
       </c>
     </row>
     <row r="181">
@@ -2966,13 +2966,13 @@
         <v>1930</v>
       </c>
       <c r="B181" t="n">
-        <v>0.4319639126706902</v>
+        <v>0.4216600598188687</v>
       </c>
       <c r="C181" t="n">
-        <v>0.3439443297077691</v>
+        <v>0.332452897370298</v>
       </c>
       <c r="D181" t="n">
-        <v>0.08801958296292112</v>
+        <v>0.08920716244857063</v>
       </c>
     </row>
     <row r="182">
@@ -2980,13 +2980,13 @@
         <v>1931</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4344530214602345</v>
+        <v>0.4242268743846336</v>
       </c>
       <c r="C182" t="n">
-        <v>0.3462418904041829</v>
+        <v>0.3345008221093315</v>
       </c>
       <c r="D182" t="n">
-        <v>0.08821113105605161</v>
+        <v>0.08972605227530206</v>
       </c>
     </row>
     <row r="183">
@@ -2994,13 +2994,13 @@
         <v>1932</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4368450695681396</v>
+        <v>0.4266754137695896</v>
       </c>
       <c r="C183" t="n">
-        <v>0.3485420366528276</v>
+        <v>0.3366692247261684</v>
       </c>
       <c r="D183" t="n">
-        <v>0.08830303291531205</v>
+        <v>0.09000618904342117</v>
       </c>
     </row>
     <row r="184">
@@ -3008,13 +3008,13 @@
         <v>1933</v>
       </c>
       <c r="B184" t="n">
-        <v>0.4391635914935637</v>
+        <v>0.4290237842083489</v>
       </c>
       <c r="C184" t="n">
-        <v>0.3507452497701884</v>
+        <v>0.3388955767851098</v>
       </c>
       <c r="D184" t="n">
-        <v>0.08841834172337526</v>
+        <v>0.09012820742323902</v>
       </c>
     </row>
     <row r="185">
@@ -3022,13 +3022,13 @@
         <v>1934</v>
       </c>
       <c r="B185" t="n">
-        <v>0.4417811269256195</v>
+        <v>0.4315308625467034</v>
       </c>
       <c r="C185" t="n">
-        <v>0.3532318439227433</v>
+        <v>0.3410752465020956</v>
       </c>
       <c r="D185" t="n">
-        <v>0.08854928300287623</v>
+        <v>0.09045561604460772</v>
       </c>
     </row>
     <row r="186">
@@ -3036,13 +3036,13 @@
         <v>1935</v>
       </c>
       <c r="B186" t="n">
-        <v>0.4442258784569275</v>
+        <v>0.4340426755951525</v>
       </c>
       <c r="C186" t="n">
-        <v>0.3555463196878565</v>
+        <v>0.3431983206137863</v>
       </c>
       <c r="D186" t="n">
-        <v>0.08867955876907097</v>
+        <v>0.09084435498136623</v>
       </c>
     </row>
     <row r="187">
@@ -3050,13 +3050,13 @@
         <v>1936</v>
       </c>
       <c r="B187" t="n">
-        <v>0.4465781398050899</v>
+        <v>0.4364912997424564</v>
       </c>
       <c r="C187" t="n">
-        <v>0.3576628108449311</v>
+        <v>0.3453060669949535</v>
       </c>
       <c r="D187" t="n">
-        <v>0.08891532896015875</v>
+        <v>0.0911852327475029</v>
       </c>
     </row>
     <row r="188">
@@ -3064,13 +3064,13 @@
         <v>1937</v>
       </c>
       <c r="B188" t="n">
-        <v>0.4489280730516101</v>
+        <v>0.4386835074873168</v>
       </c>
       <c r="C188" t="n">
-        <v>0.3598288003107077</v>
+        <v>0.3475901343283376</v>
       </c>
       <c r="D188" t="n">
-        <v>0.08909927274090235</v>
+        <v>0.09109337315897914</v>
       </c>
     </row>
     <row r="189">
@@ -3078,13 +3078,13 @@
         <v>1938</v>
       </c>
       <c r="B189" t="n">
-        <v>0.4513019212773597</v>
+        <v>0.4410202637910543</v>
       </c>
       <c r="C189" t="n">
-        <v>0.3620824982586361</v>
+        <v>0.3497661348369916</v>
       </c>
       <c r="D189" t="n">
-        <v>0.08921942301872354</v>
+        <v>0.09125412895406271</v>
       </c>
     </row>
     <row r="190">
@@ -3092,13 +3092,13 @@
         <v>1939</v>
       </c>
       <c r="B190" t="n">
-        <v>0.4535853387137405</v>
+        <v>0.44344575865117</v>
       </c>
       <c r="C190" t="n">
-        <v>0.364188280679945</v>
+        <v>0.3518864392519907</v>
       </c>
       <c r="D190" t="n">
-        <v>0.0893970580337955</v>
+        <v>0.09155931939917927</v>
       </c>
     </row>
     <row r="191">
@@ -3106,13 +3106,13 @@
         <v>1940</v>
       </c>
       <c r="B191" t="n">
-        <v>0.4559047679087498</v>
+        <v>0.4458824583738621</v>
       </c>
       <c r="C191" t="n">
-        <v>0.3664795508301184</v>
+        <v>0.3539706510656537</v>
       </c>
       <c r="D191" t="n">
-        <v>0.08942521707863138</v>
+        <v>0.09191180730820836</v>
       </c>
     </row>
     <row r="192">
@@ -3120,13 +3120,13 @@
         <v>1941</v>
       </c>
       <c r="B192" t="n">
-        <v>0.4582501949312712</v>
+        <v>0.4483929989138717</v>
       </c>
       <c r="C192" t="n">
-        <v>0.3686690363104654</v>
+        <v>0.3560768799197147</v>
       </c>
       <c r="D192" t="n">
-        <v>0.08958115862080573</v>
+        <v>0.09231611899415704</v>
       </c>
     </row>
     <row r="193">
@@ -3134,13 +3134,13 @@
         <v>1942</v>
       </c>
       <c r="B193" t="n">
-        <v>0.4607177790911763</v>
+        <v>0.450837708370865</v>
       </c>
       <c r="C193" t="n">
-        <v>0.3709721892097457</v>
+        <v>0.3581676845136448</v>
       </c>
       <c r="D193" t="n">
-        <v>0.08974558988143055</v>
+        <v>0.09267002385722023</v>
       </c>
     </row>
     <row r="194">
@@ -3148,13 +3148,13 @@
         <v>1943</v>
       </c>
       <c r="B194" t="n">
-        <v>0.4631198020107141</v>
+        <v>0.4530839758422611</v>
       </c>
       <c r="C194" t="n">
-        <v>0.373263139103682</v>
+        <v>0.3604512385463448</v>
       </c>
       <c r="D194" t="n">
-        <v>0.08985666290703209</v>
+        <v>0.09263273729591637</v>
       </c>
     </row>
     <row r="195">
@@ -3162,13 +3162,13 @@
         <v>1944</v>
       </c>
       <c r="B195" t="n">
-        <v>0.4652541890940638</v>
+        <v>0.4553639924458732</v>
       </c>
       <c r="C195" t="n">
-        <v>0.3752801385678866</v>
+        <v>0.3626605078763356</v>
       </c>
       <c r="D195" t="n">
-        <v>0.08997405052617724</v>
+        <v>0.09270348456953759</v>
       </c>
     </row>
     <row r="196">
@@ -3176,13 +3176,13 @@
         <v>1945</v>
       </c>
       <c r="B196" t="n">
-        <v>0.4676151038302692</v>
+        <v>0.4575619671020243</v>
       </c>
       <c r="C196" t="n">
-        <v>0.3774869638474141</v>
+        <v>0.3648765733904953</v>
       </c>
       <c r="D196" t="n">
-        <v>0.09012813998285507</v>
+        <v>0.09268539371152906</v>
       </c>
     </row>
     <row r="197">
@@ -3190,13 +3190,13 @@
         <v>1946</v>
       </c>
       <c r="B197" t="n">
-        <v>0.4698993119370716</v>
+        <v>0.4601100969522243</v>
       </c>
       <c r="C197" t="n">
-        <v>0.3795387123633551</v>
+        <v>0.3668295215783473</v>
       </c>
       <c r="D197" t="n">
-        <v>0.09036059957371645</v>
+        <v>0.09328057537387702</v>
       </c>
     </row>
     <row r="198">
@@ -3204,13 +3204,13 @@
         <v>1947</v>
       </c>
       <c r="B198" t="n">
-        <v>0.4723029225248641</v>
+        <v>0.4624583691989894</v>
       </c>
       <c r="C198" t="n">
-        <v>0.3818282984396855</v>
+        <v>0.3689347761788517</v>
       </c>
       <c r="D198" t="n">
-        <v>0.09047462408517859</v>
+        <v>0.09352359302013769</v>
       </c>
     </row>
     <row r="199">
@@ -3218,13 +3218,13 @@
         <v>1948</v>
       </c>
       <c r="B199" t="n">
-        <v>0.4745934398369416</v>
+        <v>0.4648377822276553</v>
       </c>
       <c r="C199" t="n">
-        <v>0.3840606280377812</v>
+        <v>0.3710001217308099</v>
       </c>
       <c r="D199" t="n">
-        <v>0.0905328117991604</v>
+        <v>0.09383766049684539</v>
       </c>
     </row>
     <row r="200">
@@ -3232,13 +3232,13 @@
         <v>1949</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4769762233800301</v>
+        <v>0.4672763194766931</v>
       </c>
       <c r="C200" t="n">
-        <v>0.3862618786181424</v>
+        <v>0.3730408936800367</v>
       </c>
       <c r="D200" t="n">
-        <v>0.09071434476188767</v>
+        <v>0.09423542579665645</v>
       </c>
     </row>
     <row r="201">
@@ -3246,13 +3246,13 @@
         <v>1950</v>
       </c>
       <c r="B201" t="n">
-        <v>0.4791490099349458</v>
+        <v>0.4695462833987407</v>
       </c>
       <c r="C201" t="n">
-        <v>0.3884041407186167</v>
+        <v>0.3751911261672229</v>
       </c>
       <c r="D201" t="n">
-        <v>0.09074486921632907</v>
+        <v>0.09435515723151777</v>
       </c>
     </row>
     <row r="202">
@@ -3260,13 +3260,13 @@
         <v>1951</v>
       </c>
       <c r="B202" t="n">
-        <v>0.4815732246189897</v>
+        <v>0.4716961476315431</v>
       </c>
       <c r="C202" t="n">
-        <v>0.3907045089333758</v>
+        <v>0.3773687643796926</v>
       </c>
       <c r="D202" t="n">
-        <v>0.09086871568561383</v>
+        <v>0.09432738325185053</v>
       </c>
     </row>
     <row r="203">
@@ -3274,13 +3274,13 @@
         <v>1952</v>
       </c>
       <c r="B203" t="n">
-        <v>0.4839605450628146</v>
+        <v>0.4739514099460269</v>
       </c>
       <c r="C203" t="n">
-        <v>0.3930237028765036</v>
+        <v>0.3794972825345884</v>
       </c>
       <c r="D203" t="n">
-        <v>0.09093684218631104</v>
+        <v>0.09445412741143855</v>
       </c>
     </row>
     <row r="204">
@@ -3288,13 +3288,13 @@
         <v>1953</v>
       </c>
       <c r="B204" t="n">
-        <v>0.4861846723113885</v>
+        <v>0.4762133128704584</v>
       </c>
       <c r="C204" t="n">
-        <v>0.3950797347931503</v>
+        <v>0.3815718952035438</v>
       </c>
       <c r="D204" t="n">
-        <v>0.09110493751823823</v>
+        <v>0.09464141766691458</v>
       </c>
     </row>
     <row r="205">
@@ -3302,13 +3302,13 @@
         <v>1954</v>
       </c>
       <c r="B205" t="n">
-        <v>0.4884456621165816</v>
+        <v>0.4787159231947289</v>
       </c>
       <c r="C205" t="n">
-        <v>0.397275168259041</v>
+        <v>0.3835817587778561</v>
       </c>
       <c r="D205" t="n">
-        <v>0.09117049385754061</v>
+        <v>0.09513416441687284</v>
       </c>
     </row>
     <row r="206">
@@ -3316,13 +3316,13 @@
         <v>1955</v>
       </c>
       <c r="B206" t="n">
-        <v>0.490696493672683</v>
+        <v>0.4811002840059713</v>
       </c>
       <c r="C206" t="n">
-        <v>0.3993476116933139</v>
+        <v>0.3856136803060188</v>
       </c>
       <c r="D206" t="n">
-        <v>0.09134888197936908</v>
+        <v>0.09548660369995243</v>
       </c>
     </row>
     <row r="207">
@@ -3330,13 +3330,13 @@
         <v>1956</v>
       </c>
       <c r="B207" t="n">
-        <v>0.4929527230441275</v>
+        <v>0.4832284227356163</v>
       </c>
       <c r="C207" t="n">
-        <v>0.4014859333264957</v>
+        <v>0.3877675493812482</v>
       </c>
       <c r="D207" t="n">
-        <v>0.09146678971763178</v>
+        <v>0.09546087335436804</v>
       </c>
     </row>
     <row r="208">
@@ -3344,13 +3344,13 @@
         <v>1957</v>
       </c>
       <c r="B208" t="n">
-        <v>0.4950723375998609</v>
+        <v>0.4855371762837173</v>
       </c>
       <c r="C208" t="n">
-        <v>0.4035735591546357</v>
+        <v>0.389751120711709</v>
       </c>
       <c r="D208" t="n">
-        <v>0.09149877844522525</v>
+        <v>0.09578605557200826</v>
       </c>
     </row>
     <row r="209">
@@ -3358,13 +3358,13 @@
         <v>1958</v>
       </c>
       <c r="B209" t="n">
-        <v>0.4973755516244642</v>
+        <v>0.4878223645921427</v>
       </c>
       <c r="C209" t="n">
-        <v>0.4058792083136873</v>
+        <v>0.3917049339026382</v>
       </c>
       <c r="D209" t="n">
-        <v>0.09149634331077694</v>
+        <v>0.09611743068950451</v>
       </c>
     </row>
     <row r="210">
@@ -3372,13 +3372,13 @@
         <v>1959</v>
       </c>
       <c r="B210" t="n">
-        <v>0.4995416329425657</v>
+        <v>0.4898904484726425</v>
       </c>
       <c r="C210" t="n">
-        <v>0.4079407912672286</v>
+        <v>0.3937862909442709</v>
       </c>
       <c r="D210" t="n">
-        <v>0.09160084167533711</v>
+        <v>0.09610415752837165</v>
       </c>
     </row>
     <row r="211">
@@ -3386,13 +3386,13 @@
         <v>1960</v>
       </c>
       <c r="B211" t="n">
-        <v>0.5017876866817792</v>
+        <v>0.4921638043536909</v>
       </c>
       <c r="C211" t="n">
-        <v>0.4100165604150456</v>
+        <v>0.3958933024334113</v>
       </c>
       <c r="D211" t="n">
-        <v>0.09177112626673356</v>
+        <v>0.09627050192027964</v>
       </c>
     </row>
     <row r="212">
@@ -3400,13 +3400,13 @@
         <v>1961</v>
       </c>
       <c r="B212" t="n">
-        <v>0.5040402833517619</v>
+        <v>0.49421726933409</v>
       </c>
       <c r="C212" t="n">
-        <v>0.4121668160813967</v>
+        <v>0.3981004476066641</v>
       </c>
       <c r="D212" t="n">
-        <v>0.09187346727036516</v>
+        <v>0.09611682172742597</v>
       </c>
     </row>
     <row r="213">
@@ -3414,13 +3414,13 @@
         <v>1962</v>
       </c>
       <c r="B213" t="n">
-        <v>0.5062140565057667</v>
+        <v>0.4964922774905443</v>
       </c>
       <c r="C213" t="n">
-        <v>0.4142331812555562</v>
+        <v>0.4000981449792227</v>
       </c>
       <c r="D213" t="n">
-        <v>0.09198087525021048</v>
+        <v>0.09639413251132156</v>
       </c>
     </row>
     <row r="214">
@@ -3428,13 +3428,13 @@
         <v>1963</v>
       </c>
       <c r="B214" t="n">
-        <v>0.5083991266901364</v>
+        <v>0.4987012531353403</v>
       </c>
       <c r="C214" t="n">
-        <v>0.416330534790589</v>
+        <v>0.4021617282628394</v>
       </c>
       <c r="D214" t="n">
-        <v>0.09206859189954741</v>
+        <v>0.09653952487250095</v>
       </c>
     </row>
     <row r="215">
@@ -3442,13 +3442,13 @@
         <v>1964</v>
       </c>
       <c r="B215" t="n">
-        <v>0.5105842987401417</v>
+        <v>0.5007730385883642</v>
       </c>
       <c r="C215" t="n">
-        <v>0.4183819126989996</v>
+        <v>0.4042750653963947</v>
       </c>
       <c r="D215" t="n">
-        <v>0.09220238604114206</v>
+        <v>0.09649797319196951</v>
       </c>
     </row>
     <row r="216">
@@ -3456,13 +3456,13 @@
         <v>1965</v>
       </c>
       <c r="B216" t="n">
-        <v>0.5127779483374915</v>
+        <v>0.5028966076207557</v>
       </c>
       <c r="C216" t="n">
-        <v>0.4204662038653346</v>
+        <v>0.4063039191649023</v>
       </c>
       <c r="D216" t="n">
-        <v>0.09231174447215684</v>
+        <v>0.09659268845585345</v>
       </c>
     </row>
     <row r="217">
@@ -3470,13 +3470,13 @@
         <v>1966</v>
       </c>
       <c r="B217" t="n">
-        <v>0.5149021924820993</v>
+        <v>0.5051487459076154</v>
       </c>
       <c r="C217" t="n">
-        <v>0.4224791707078461</v>
+        <v>0.4082927220183463</v>
       </c>
       <c r="D217" t="n">
-        <v>0.09242302177425321</v>
+        <v>0.09685602388926906</v>
       </c>
     </row>
     <row r="218">
@@ -3484,13 +3484,13 @@
         <v>1967</v>
       </c>
       <c r="B218" t="n">
-        <v>0.5170328538338897</v>
+        <v>0.507297733164167</v>
       </c>
       <c r="C218" t="n">
-        <v>0.4245642542291539</v>
+        <v>0.4103318964694957</v>
       </c>
       <c r="D218" t="n">
-        <v>0.09246859960473586</v>
+        <v>0.09696583669467129</v>
       </c>
     </row>
     <row r="219">
@@ -3498,13 +3498,13 @@
         <v>1968</v>
       </c>
       <c r="B219" t="n">
-        <v>0.5192258268238561</v>
+        <v>0.5095096672688215</v>
       </c>
       <c r="C219" t="n">
-        <v>0.4266140298170007</v>
+        <v>0.4122744537137719</v>
       </c>
       <c r="D219" t="n">
-        <v>0.0926117970068554</v>
+        <v>0.0972352135550496</v>
       </c>
     </row>
     <row r="220">
@@ -3512,13 +3512,13 @@
         <v>1969</v>
       </c>
       <c r="B220" t="n">
-        <v>0.5214057210962921</v>
+        <v>0.5117784752626982</v>
       </c>
       <c r="C220" t="n">
-        <v>0.4286472421940095</v>
+        <v>0.4142447521293282</v>
       </c>
       <c r="D220" t="n">
-        <v>0.09275847890228262</v>
+        <v>0.09753372313336994</v>
       </c>
     </row>
     <row r="221">
@@ -3526,13 +3526,13 @@
         <v>1970</v>
       </c>
       <c r="B221" t="n">
-        <v>0.523532472901366</v>
+        <v>0.5138710264160631</v>
       </c>
       <c r="C221" t="n">
-        <v>0.4307545121615419</v>
+        <v>0.416297785772572</v>
       </c>
       <c r="D221" t="n">
-        <v>0.09277796073982403</v>
+        <v>0.09757324064349104</v>
       </c>
     </row>
     <row r="222">
@@ -3540,13 +3540,13 @@
         <v>1971</v>
       </c>
       <c r="B222" t="n">
-        <v>0.525721814240367</v>
+        <v>0.5160406734134422</v>
       </c>
       <c r="C222" t="n">
-        <v>0.4327575029879847</v>
+        <v>0.4183285835612827</v>
       </c>
       <c r="D222" t="n">
-        <v>0.09296431125238236</v>
+        <v>0.09771208985215951</v>
       </c>
     </row>
     <row r="223">
@@ -3554,13 +3554,13 @@
         <v>1972</v>
       </c>
       <c r="B223" t="n">
-        <v>0.5279187758420378</v>
+        <v>0.5184280071636471</v>
       </c>
       <c r="C223" t="n">
-        <v>0.434855239910565</v>
+        <v>0.4201347162716464</v>
       </c>
       <c r="D223" t="n">
-        <v>0.09306353593147287</v>
+        <v>0.09829329089200067</v>
       </c>
     </row>
     <row r="224">
@@ -3568,13 +3568,13 @@
         <v>1973</v>
       </c>
       <c r="B224" t="n">
-        <v>0.530016442948269</v>
+        <v>0.5206058163316798</v>
       </c>
       <c r="C224" t="n">
-        <v>0.4368997063820874</v>
+        <v>0.4221264090304628</v>
       </c>
       <c r="D224" t="n">
-        <v>0.09311673656618158</v>
+        <v>0.09847940730121696</v>
       </c>
     </row>
     <row r="225">
@@ -3582,13 +3582,13 @@
         <v>1974</v>
       </c>
       <c r="B225" t="n">
-        <v>0.5320861750991646</v>
+        <v>0.5226611718891805</v>
       </c>
       <c r="C225" t="n">
-        <v>0.4389783661860993</v>
+        <v>0.4241644602525292</v>
       </c>
       <c r="D225" t="n">
-        <v>0.09310780891306525</v>
+        <v>0.0984967116366513</v>
       </c>
     </row>
     <row r="226">
@@ -3596,13 +3596,13 @@
         <v>1975</v>
       </c>
       <c r="B226" t="n">
-        <v>0.5341848868079384</v>
+        <v>0.5247870729863395</v>
       </c>
       <c r="C226" t="n">
-        <v>0.440964051736779</v>
+        <v>0.4260979573889281</v>
       </c>
       <c r="D226" t="n">
-        <v>0.09322083507115941</v>
+        <v>0.09868911559741145</v>
       </c>
     </row>
     <row r="227">
@@ -3610,13 +3610,13 @@
         <v>1976</v>
       </c>
       <c r="B227" t="n">
-        <v>0.536282236550397</v>
+        <v>0.5268328223383079</v>
       </c>
       <c r="C227" t="n">
-        <v>0.4429578777437726</v>
+        <v>0.4282101404308514</v>
       </c>
       <c r="D227" t="n">
-        <v>0.09332435880662437</v>
+        <v>0.09862268190745649</v>
       </c>
     </row>
     <row r="228">
@@ -3624,13 +3624,13 @@
         <v>1977</v>
       </c>
       <c r="B228" t="n">
-        <v>0.5383070134659782</v>
+        <v>0.529097091642428</v>
       </c>
       <c r="C228" t="n">
-        <v>0.4449262654551411</v>
+        <v>0.4300879093423671</v>
       </c>
       <c r="D228" t="n">
-        <v>0.09338074801083707</v>
+        <v>0.09900918230006095</v>
       </c>
     </row>
     <row r="229">
@@ -3638,13 +3638,13 @@
         <v>1978</v>
       </c>
       <c r="B229" t="n">
-        <v>0.540396057651539</v>
+        <v>0.5312510362486145</v>
       </c>
       <c r="C229" t="n">
-        <v>0.4470248645803805</v>
+        <v>0.4320041003645203</v>
       </c>
       <c r="D229" t="n">
-        <v>0.09337119307115849</v>
+        <v>0.09924693588409417</v>
       </c>
     </row>
     <row r="230">
@@ -3652,13 +3652,13 @@
         <v>1979</v>
       </c>
       <c r="B230" t="n">
-        <v>0.5424572482870293</v>
+        <v>0.5334444799150058</v>
       </c>
       <c r="C230" t="n">
-        <v>0.4489515187122253</v>
+        <v>0.4338381252758277</v>
       </c>
       <c r="D230" t="n">
-        <v>0.09350572957480408</v>
+        <v>0.09960635463917811</v>
       </c>
     </row>
     <row r="231">
@@ -3666,13 +3666,13 @@
         <v>1980</v>
       </c>
       <c r="B231" t="n">
-        <v>0.5444939761709651</v>
+        <v>0.5355911947058063</v>
       </c>
       <c r="C231" t="n">
-        <v>0.4509367955939303</v>
+        <v>0.4356689864804539</v>
       </c>
       <c r="D231" t="n">
-        <v>0.09355718057703477</v>
+        <v>0.09992220822535236</v>
       </c>
     </row>
     <row r="232">
@@ -3680,13 +3680,13 @@
         <v>1981</v>
       </c>
       <c r="B232" t="n">
-        <v>0.5465853077750076</v>
+        <v>0.5376921232621394</v>
       </c>
       <c r="C232" t="n">
-        <v>0.4529804811665383</v>
+        <v>0.4375544156071833</v>
       </c>
       <c r="D232" t="n">
-        <v>0.09360482660846925</v>
+        <v>0.1001377076549561</v>
       </c>
     </row>
     <row r="233">
@@ -3694,13 +3694,13 @@
         <v>1982</v>
       </c>
       <c r="B233" t="n">
-        <v>0.5487429039322751</v>
+        <v>0.5398394105033995</v>
       </c>
       <c r="C233" t="n">
-        <v>0.4549490860499219</v>
+        <v>0.4393872848533</v>
       </c>
       <c r="D233" t="n">
-        <v>0.09379381788235319</v>
+        <v>0.1004521256500994</v>
       </c>
     </row>
     <row r="234">
@@ -3708,13 +3708,13 @@
         <v>1983</v>
       </c>
       <c r="B234" t="n">
-        <v>0.550828419278552</v>
+        <v>0.5419156545512376</v>
       </c>
       <c r="C234" t="n">
-        <v>0.4568798630437501</v>
+        <v>0.4412948469916103</v>
       </c>
       <c r="D234" t="n">
-        <v>0.09394855623480192</v>
+        <v>0.1006208075596273</v>
       </c>
     </row>
     <row r="235">
@@ -3722,13 +3722,13 @@
         <v>1984</v>
       </c>
       <c r="B235" t="n">
-        <v>0.5527969778679123</v>
+        <v>0.5439377375772736</v>
       </c>
       <c r="C235" t="n">
-        <v>0.4587371899762944</v>
+        <v>0.4432972049963264</v>
       </c>
       <c r="D235" t="n">
-        <v>0.09405978789161784</v>
+        <v>0.1006405325809472</v>
       </c>
     </row>
     <row r="236">
@@ -3736,13 +3736,13 @@
         <v>1985</v>
       </c>
       <c r="B236" t="n">
-        <v>0.5548563103760089</v>
+        <v>0.5459074633107091</v>
       </c>
       <c r="C236" t="n">
-        <v>0.4607676346025187</v>
+        <v>0.4452936856342826</v>
       </c>
       <c r="D236" t="n">
-        <v>0.09408867577349023</v>
+        <v>0.1006137776764264</v>
       </c>
     </row>
     <row r="237">
@@ -3750,13 +3750,13 @@
         <v>1986</v>
       </c>
       <c r="B237" t="n">
-        <v>0.5569225354235376</v>
+        <v>0.5479121638309885</v>
       </c>
       <c r="C237" t="n">
-        <v>0.4627544701952648</v>
+        <v>0.4472107251710882</v>
       </c>
       <c r="D237" t="n">
-        <v>0.09416806522827281</v>
+        <v>0.1007014386599003</v>
       </c>
     </row>
     <row r="238">
@@ -3764,13 +3764,13 @@
         <v>1987</v>
       </c>
       <c r="B238" t="n">
-        <v>0.5588333470479303</v>
+        <v>0.5497130887088035</v>
       </c>
       <c r="C238" t="n">
-        <v>0.4646967249762097</v>
+        <v>0.4492652059059847</v>
       </c>
       <c r="D238" t="n">
-        <v>0.09413662207172058</v>
+        <v>0.1004478828028188</v>
       </c>
     </row>
     <row r="239">
@@ -3778,13 +3778,13 @@
         <v>1988</v>
       </c>
       <c r="B239" t="n">
-        <v>0.5609042012124781</v>
+        <v>0.5518983332594143</v>
       </c>
       <c r="C239" t="n">
-        <v>0.4667102724876226</v>
+        <v>0.4509441786350563</v>
       </c>
       <c r="D239" t="n">
-        <v>0.09419392872485544</v>
+        <v>0.100954154624358</v>
       </c>
     </row>
     <row r="240">
@@ -3792,13 +3792,13 @@
         <v>1989</v>
       </c>
       <c r="B240" t="n">
-        <v>0.5628729563071633</v>
+        <v>0.5537350642962169</v>
       </c>
       <c r="C240" t="n">
-        <v>0.468646910054622</v>
+        <v>0.4528963695579202</v>
       </c>
       <c r="D240" t="n">
-        <v>0.09422604625254127</v>
+        <v>0.1008386947382967</v>
       </c>
     </row>
     <row r="241">
@@ -3806,13 +3806,13 @@
         <v>1990</v>
       </c>
       <c r="B241" t="n">
-        <v>0.5648060182895542</v>
+        <v>0.5557760104078056</v>
       </c>
       <c r="C241" t="n">
-        <v>0.4705654166624593</v>
+        <v>0.4547701202868404</v>
       </c>
       <c r="D241" t="n">
-        <v>0.09424060162709491</v>
+        <v>0.1010058901209652</v>
       </c>
     </row>
     <row r="242">
@@ -3820,13 +3820,13 @@
         <v>1991</v>
       </c>
       <c r="B242" t="n">
-        <v>0.566789705225887</v>
+        <v>0.5576823817942702</v>
       </c>
       <c r="C242" t="n">
-        <v>0.4725546382257622</v>
+        <v>0.4567178793228166</v>
       </c>
       <c r="D242" t="n">
-        <v>0.09423506700012485</v>
+        <v>0.1009645024714536</v>
       </c>
     </row>
     <row r="243">
@@ -3834,13 +3834,13 @@
         <v>1992</v>
       </c>
       <c r="B243" t="n">
-        <v>0.5687967171990511</v>
+        <v>0.5595169962136417</v>
       </c>
       <c r="C243" t="n">
-        <v>0.4744753073901937</v>
+        <v>0.4586987861373064</v>
       </c>
       <c r="D243" t="n">
-        <v>0.09432140980885739</v>
+        <v>0.1008182100763353</v>
       </c>
     </row>
     <row r="244">
@@ -3848,13 +3848,13 @@
         <v>1993</v>
       </c>
       <c r="B244" t="n">
-        <v>0.570803495553013</v>
+        <v>0.5615292243651715</v>
       </c>
       <c r="C244" t="n">
-        <v>0.4764208000703594</v>
+        <v>0.4605192730829937</v>
       </c>
       <c r="D244" t="n">
-        <v>0.09438269548265366</v>
+        <v>0.1010099512821778</v>
       </c>
     </row>
     <row r="245">
@@ -3862,13 +3862,13 @@
         <v>1994</v>
       </c>
       <c r="B245" t="n">
-        <v>0.5727165436715764</v>
+        <v>0.563495052471628</v>
       </c>
       <c r="C245" t="n">
-        <v>0.478257586671059</v>
+        <v>0.4623361563237367</v>
       </c>
       <c r="D245" t="n">
-        <v>0.09445895700051743</v>
+        <v>0.1011588961478913</v>
       </c>
     </row>
     <row r="246">
@@ -3876,13 +3876,13 @@
         <v>1995</v>
       </c>
       <c r="B246" t="n">
-        <v>0.5748011613875321</v>
+        <v>0.5654614310208173</v>
       </c>
       <c r="C246" t="n">
-        <v>0.4802679453882694</v>
+        <v>0.4641338895144695</v>
       </c>
       <c r="D246" t="n">
-        <v>0.09453321599926268</v>
+        <v>0.1013275415063477</v>
       </c>
     </row>
     <row r="247">
@@ -3890,13 +3890,13 @@
         <v>1996</v>
       </c>
       <c r="B247" t="n">
-        <v>0.5767223663291268</v>
+        <v>0.5675157753982685</v>
       </c>
       <c r="C247" t="n">
-        <v>0.4821674179624833</v>
+        <v>0.4659157635508731</v>
       </c>
       <c r="D247" t="n">
-        <v>0.09455494836664347</v>
+        <v>0.1016000118473954</v>
       </c>
     </row>
     <row r="248">
@@ -3904,13 +3904,13 @@
         <v>1997</v>
       </c>
       <c r="B248" t="n">
-        <v>0.578588621770586</v>
+        <v>0.5694573112730064</v>
       </c>
       <c r="C248" t="n">
-        <v>0.4840193027925892</v>
+        <v>0.4677880646521024</v>
       </c>
       <c r="D248" t="n">
-        <v>0.09456931897799681</v>
+        <v>0.1016692466209039</v>
       </c>
     </row>
     <row r="249">
@@ -3918,13 +3918,13 @@
         <v>1998</v>
       </c>
       <c r="B249" t="n">
-        <v>0.5805432860482687</v>
+        <v>0.5714585065507802</v>
       </c>
       <c r="C249" t="n">
-        <v>0.4859967595584864</v>
+        <v>0.4695516603317724</v>
       </c>
       <c r="D249" t="n">
-        <v>0.09454652648978223</v>
+        <v>0.1019068462190078</v>
       </c>
     </row>
     <row r="250">
@@ -3932,13 +3932,13 @@
         <v>1999</v>
       </c>
       <c r="B250" t="n">
-        <v>0.5824731407741557</v>
+        <v>0.5735034626973086</v>
       </c>
       <c r="C250" t="n">
-        <v>0.4878802725997469</v>
+        <v>0.4713546400426472</v>
       </c>
       <c r="D250" t="n">
-        <v>0.09459286817440882</v>
+        <v>0.1021488226546614</v>
       </c>
     </row>
     <row r="251">
@@ -3946,13 +3946,13 @@
         <v>2000</v>
       </c>
       <c r="B251" t="n">
-        <v>0.5844482059140668</v>
+        <v>0.5754493035990862</v>
       </c>
       <c r="C251" t="n">
-        <v>0.489772183420826</v>
+        <v>0.4732015748866267</v>
       </c>
       <c r="D251" t="n">
-        <v>0.09467602249324081</v>
+        <v>0.1022477287124595</v>
       </c>
     </row>
     <row r="252">
@@ -3960,13 +3960,13 @@
         <v>2001</v>
       </c>
       <c r="B252" t="n">
-        <v>0.5863647661965237</v>
+        <v>0.5773766954207993</v>
       </c>
       <c r="C252" t="n">
-        <v>0.4916411891050774</v>
+        <v>0.475016737419538</v>
       </c>
       <c r="D252" t="n">
-        <v>0.0947235770914463</v>
+        <v>0.1023599580012613</v>
       </c>
     </row>
     <row r="253">
@@ -3974,13 +3974,13 @@
         <v>2002</v>
       </c>
       <c r="B253" t="n">
-        <v>0.5883024032321877</v>
+        <v>0.5793479331024178</v>
       </c>
       <c r="C253" t="n">
-        <v>0.4935034994920779</v>
+        <v>0.476740288538696</v>
       </c>
       <c r="D253" t="n">
-        <v>0.0947989037401098</v>
+        <v>0.1026076445637218</v>
       </c>
     </row>
     <row r="254">
@@ -3988,13 +3988,13 @@
         <v>2003</v>
       </c>
       <c r="B254" t="n">
-        <v>0.5902103725855956</v>
+        <v>0.5812555355221654</v>
       </c>
       <c r="C254" t="n">
-        <v>0.4954141644463381</v>
+        <v>0.4784834993689184</v>
       </c>
       <c r="D254" t="n">
-        <v>0.09479620813925749</v>
+        <v>0.1027720361532469</v>
       </c>
     </row>
     <row r="255">
@@ -4002,13 +4002,13 @@
         <v>2004</v>
       </c>
       <c r="B255" t="n">
-        <v>0.5920809537072622</v>
+        <v>0.583230684398973</v>
       </c>
       <c r="C255" t="n">
-        <v>0.4972494616601804</v>
+        <v>0.4802924420799544</v>
       </c>
       <c r="D255" t="n">
-        <v>0.09483149204708186</v>
+        <v>0.1029382423190186</v>
       </c>
     </row>
     <row r="256">
@@ -4016,13 +4016,13 @@
         <v>2005</v>
       </c>
       <c r="B256" t="n">
-        <v>0.5940042749951484</v>
+        <v>0.5849825883017665</v>
       </c>
       <c r="C256" t="n">
-        <v>0.4991607923690293</v>
+        <v>0.4822798797325261</v>
       </c>
       <c r="D256" t="n">
-        <v>0.09484348262611908</v>
+        <v>0.1027027085692405</v>
       </c>
     </row>
     <row r="257">
@@ -4030,13 +4030,13 @@
         <v>2006</v>
       </c>
       <c r="B257" t="n">
-        <v>0.5958591098113217</v>
+        <v>0.5869127893512012</v>
       </c>
       <c r="C257" t="n">
-        <v>0.5010130737303422</v>
+        <v>0.4840314907623084</v>
       </c>
       <c r="D257" t="n">
-        <v>0.09484603608097952</v>
+        <v>0.1028812985888927</v>
       </c>
     </row>
     <row r="258">
@@ -4044,13 +4044,13 @@
         <v>2007</v>
       </c>
       <c r="B258" t="n">
-        <v>0.597749263947482</v>
+        <v>0.5888906057789702</v>
       </c>
       <c r="C258" t="n">
-        <v>0.5027749921165201</v>
+        <v>0.4857931445458159</v>
       </c>
       <c r="D258" t="n">
-        <v>0.09497427183096185</v>
+        <v>0.1030974612331543</v>
       </c>
     </row>
     <row r="259">
@@ -4058,13 +4058,13 @@
         <v>2008</v>
       </c>
       <c r="B259" t="n">
-        <v>0.5996539920983266</v>
+        <v>0.590800721353526</v>
       </c>
       <c r="C259" t="n">
-        <v>0.5046058949312573</v>
+        <v>0.4875731986932266</v>
       </c>
       <c r="D259" t="n">
-        <v>0.0950480971670693</v>
+        <v>0.1032275226602994</v>
       </c>
     </row>
     <row r="260">
@@ -4072,13 +4072,13 @@
         <v>2009</v>
       </c>
       <c r="B260" t="n">
-        <v>0.601535886089656</v>
+        <v>0.5927229658133895</v>
       </c>
       <c r="C260" t="n">
-        <v>0.5064827665156537</v>
+        <v>0.4892903374482325</v>
       </c>
       <c r="D260" t="n">
-        <v>0.09505311957400231</v>
+        <v>0.103432628365157</v>
       </c>
     </row>
     <row r="261">
@@ -4086,13 +4086,13 @@
         <v>2010</v>
       </c>
       <c r="B261" t="n">
-        <v>0.60338105150913</v>
+        <v>0.5947375115872942</v>
       </c>
       <c r="C261" t="n">
-        <v>0.5083163171342342</v>
+        <v>0.4908595136736014</v>
       </c>
       <c r="D261" t="n">
-        <v>0.09506473437489582</v>
+        <v>0.1038779979136928</v>
       </c>
     </row>
     <row r="262">
@@ -4100,13 +4100,13 @@
         <v>2011</v>
       </c>
       <c r="B262" t="n">
-        <v>0.6052064739681629</v>
+        <v>0.5966022536191886</v>
       </c>
       <c r="C262" t="n">
-        <v>0.5100972062676408</v>
+        <v>0.4925855052403847</v>
       </c>
       <c r="D262" t="n">
-        <v>0.09510926770052208</v>
+        <v>0.1040167483788039</v>
       </c>
     </row>
     <row r="263">
@@ -4114,13 +4114,13 @@
         <v>2012</v>
       </c>
       <c r="B263" t="n">
-        <v>0.6070651718696611</v>
+        <v>0.5984897156290709</v>
       </c>
       <c r="C263" t="n">
-        <v>0.5119772597737686</v>
+        <v>0.4942409870196838</v>
       </c>
       <c r="D263" t="n">
-        <v>0.09508791209589251</v>
+        <v>0.1042487286093872</v>
       </c>
     </row>
     <row r="264">
@@ -4128,13 +4128,13 @@
         <v>2013</v>
       </c>
       <c r="B264" t="n">
-        <v>0.6088492604797326</v>
+        <v>0.6002884391353289</v>
       </c>
       <c r="C264" t="n">
-        <v>0.513690195567063</v>
+        <v>0.4960533257281519</v>
       </c>
       <c r="D264" t="n">
-        <v>0.09515906491266968</v>
+        <v>0.1042351134071771</v>
       </c>
     </row>
     <row r="265">
@@ -4142,13 +4142,13 @@
         <v>2014</v>
       </c>
       <c r="B265" t="n">
-        <v>0.6106309784632491</v>
+        <v>0.6020712757971283</v>
       </c>
       <c r="C265" t="n">
-        <v>0.5154761788526048</v>
+        <v>0.4978356349655511</v>
       </c>
       <c r="D265" t="n">
-        <v>0.09515479961064433</v>
+        <v>0.1042356408315772</v>
       </c>
     </row>
   </sheetData>
